--- a/misc/利用サンプル.xlsx
+++ b/misc/利用サンプル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBABFA9-4E0B-4667-916A-DB5897911038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A514E-CFC1-41DF-9B6F-DA23A31EE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>ABCDEFGHIJKLNMOPQRSTUVWXYZabcdefghijklnmopqrstuvwxyz1234567890</t>
     <phoneticPr fontId="1"/>
@@ -45,19 +45,7 @@
     <t>BzなろうPゴシック50-Regular.ttf</t>
   </si>
   <si>
-    <t xml:space="preserve">BzなろうP明朝50-Bold.ttf   </t>
-  </si>
-  <si>
     <t>BzなろうP明朝50-Regular.ttf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BzなろうP明朝75-Bold.ttf   </t>
-  </si>
-  <si>
-    <t>BzなろうP明朝75-Regular.ttf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bzなろう明朝50-Bold.ttf    </t>
   </si>
   <si>
     <t>12P→</t>
@@ -91,12 +79,6 @@
       <t>サギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BzなろうP明朝88-Bold.ttf   </t>
-  </si>
-  <si>
-    <t>BzなろうP明朝88-Regular.ttf</t>
   </si>
   <si>
     <t>一二三四五六七八九〇</t>
@@ -241,34 +223,6 @@
   </si>
   <si>
     <t>Monospace７０</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝30-Regular.ttf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝40-Regular.ttf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝50-Regular.ttf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝60-Regular.ttf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝70-Regular.ttf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝80-Regular.ttf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BzなろうP明朝90-Regular.ttf</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -431,12 +385,30 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>BzなろうP明朝30-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝40-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝60-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝70-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝80-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝90-Regular.ttf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="81" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,40 +549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="36"/>
       <color theme="1"/>
       <name val="BzなろうP明朝50"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="BzなろうP明朝50"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="BzなろうP明朝75"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="BzなろうP明朝75"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Bzなろう明朝50"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -629,21 +570,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="BzなろうP明朝88"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="BzなろうP明朝88"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="72"/>
       <color theme="1"/>
       <name val="BzなろうMゴシック50"/>
@@ -873,6 +799,188 @@
       <color theme="1"/>
       <name val="Bzなろうゴシック70"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -898,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,54 +1055,54 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,24 +1155,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,19 +1175,97 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,11 +1619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B7EE9-DD20-4F11-8F0B-71B12F5A6F01}">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.29296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.8203125" style="1" bestFit="1" customWidth="1"/>
@@ -1470,93 +1636,93 @@
     <col min="11" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.5">
-      <c r="B2" s="58" t="s">
-        <v>8</v>
+    <row r="2" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="52" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="59" t="s">
-        <v>7</v>
+      <c r="E2" s="53" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="60" t="s">
-        <v>9</v>
+      <c r="H2" s="54" t="s">
+        <v>5</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:10" ht="21">
+    <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:10" ht="18.5">
-      <c r="B4" s="61" t="s">
-        <v>27</v>
+    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="65" t="s">
-        <v>27</v>
+      <c r="E4" s="59" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="63" t="s">
-        <v>27</v>
+      <c r="H4" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="2:10" ht="18.5">
-      <c r="B5" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="62" t="s">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="66" t="s">
+      <c r="E5" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="64" t="s">
+      <c r="H5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="58" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:10" ht="18.5">
+    <row r="6" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1567,191 +1733,191 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="2:10" ht="18.5">
+    <row r="7" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
-      <c r="C7" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="80" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="18.5">
+    <row r="8" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="74" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="18.5">
+    <row r="9" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>31</v>
+      <c r="G9" s="75" t="s">
+        <v>2</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="69" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="18.5">
-      <c r="B10" s="6"/>
-      <c r="C10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="18.5">
-      <c r="B11" s="6"/>
-      <c r="C11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
+    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="85" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="18.5">
-      <c r="B12" s="6"/>
-      <c r="C12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
+    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18.5">
-      <c r="B13" s="6"/>
-      <c r="C13" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="54.5">
-      <c r="B15" s="56" t="s">
-        <v>10</v>
+    <row r="15" spans="2:10" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="57" t="s">
-        <v>36</v>
+      <c r="G15" s="51" t="s">
+        <v>23</v>
       </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="2:10" ht="61.5">
+    <row r="16" spans="2:10" ht="61.5" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="57" t="s">
-        <v>37</v>
+      <c r="G16" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="3:10" ht="54.5">
-      <c r="C17" s="22" t="s">
-        <v>27</v>
+    <row r="17" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="C17" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>0</v>
@@ -1761,11 +1927,11 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="3:10" ht="54.5">
-      <c r="C18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="50" t="s">
+    <row r="18" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="14"/>
@@ -1773,36 +1939,36 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="20" spans="3:10" ht="41.5">
-      <c r="C20" s="51" t="s">
-        <v>21</v>
+    <row r="20" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C20" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="41.5">
-      <c r="C21" s="52" t="s">
-        <v>22</v>
+      <c r="H20" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C21" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="41.5">
+      <c r="H21" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>1</v>
       </c>
@@ -1810,56 +1976,56 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="41.5">
-      <c r="C23" s="53" t="s">
-        <v>23</v>
+      <c r="H22" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C23" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="41.5">
-      <c r="C24" s="54" t="s">
-        <v>24</v>
+      <c r="H23" s="63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C24" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="41.5">
-      <c r="C25" s="55" t="s">
-        <v>25</v>
+      <c r="H24" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C25" s="49" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="41.5">
-      <c r="C26" s="19" t="s">
-        <v>26</v>
+      <c r="H25" s="65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C26" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="20" t="s">
-        <v>6</v>
+      <c r="H26" s="66" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1873,9 +2039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B2A1F9-82F2-4797-A853-CEAA57012660}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="60.41015625" customWidth="1"/>
     <col min="3" max="3" width="46.703125" bestFit="1" customWidth="1"/>
@@ -1883,9 +2051,9 @@
     <col min="5" max="5" width="68.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="224.5">
-      <c r="B3" s="23" t="s">
-        <v>12</v>
+    <row r="3" spans="2:2" ht="224.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1903,49 +2071,49 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.05859375" customWidth="1"/>
     <col min="3" max="3" width="10.29296875" customWidth="1"/>
     <col min="4" max="4" width="47.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" ht="64">
-      <c r="B7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="81">
-      <c r="B8" s="26">
+    <row r="7" spans="2:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="B8" s="20">
         <v>1234567890</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="C8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="81">
-      <c r="B9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="81">
-      <c r="B10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
+    <row r="9" spans="2:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/misc/利用サンプル.xlsx
+++ b/misc/利用サンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A514E-CFC1-41DF-9B6F-DA23A31EE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3306D2-AC72-4A86-962D-1EEC717EA60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>ABCDEFGHIJKLNMOPQRSTUVWXYZabcdefghijklnmopqrstuvwxyz1234567890</t>
     <phoneticPr fontId="1"/>
@@ -403,12 +403,29 @@
   <si>
     <t>BzなろうP明朝90-Regular.ttf</t>
   </si>
+  <si>
+    <t>全裸中年男性</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウネン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぜんらちゅうねんだんせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="81" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,13 +1000,35 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="200"/>
+      <color rgb="FFFF99FF"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="100"/>
+      <color rgb="FFFF99FF"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1006,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,9 +1103,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,6 +1303,18 @@
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,6 +1322,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1619,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B7EE9-DD20-4F11-8F0B-71B12F5A6F01}">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1637,21 +1690,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -1677,21 +1730,21 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -1700,24 +1753,24 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="9"/>
@@ -1735,47 +1788,47 @@
     </row>
     <row r="7" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="72" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="79" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="73" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="80" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1791,117 +1844,117 @@
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="74" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="75" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="82" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="76" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="83" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="70" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="77" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="84" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="71" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="78" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="85" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="54.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="50" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="14"/>
@@ -1910,7 +1963,7 @@
       <c r="C16" s="12"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="50" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="14"/>
@@ -1931,7 +1984,7 @@
       <c r="C18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="14"/>
@@ -1940,7 +1993,7 @@
       <c r="H18" s="14"/>
     </row>
     <row r="20" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="14"/>
@@ -1949,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="60" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="17" t="s">
@@ -1957,14 +2010,14 @@
       </c>
     </row>
     <row r="21" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="61" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1981,38 +2034,38 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="64" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2024,7 +2077,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="65" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2037,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B2A1F9-82F2-4797-A853-CEAA57012660}">
-  <dimension ref="B3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2051,10 +2104,95 @@
     <col min="5" max="5" width="68.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="224.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+    </row>
+    <row r="3" spans="1:4" ht="224.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+    </row>
+    <row r="10" spans="1:4" ht="104.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="86"/>
+      <c r="B10" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+    </row>
+    <row r="11" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="2.4500000000000002">
+      <c r="A11" s="86"/>
+      <c r="B11" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2079,40 +2217,40 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>1234567890</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>1234567890</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
     </row>

--- a/misc/利用サンプル.xlsx
+++ b/misc/利用サンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3306D2-AC72-4A86-962D-1EEC717EA60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E875F6F-E64B-45BD-9923-73767314BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>ABCDEFGHIJKLNMOPQRSTUVWXYZabcdefghijklnmopqrstuvwxyz1234567890</t>
     <phoneticPr fontId="1"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>16P→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>48P→</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -241,65 +237,6 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>無印５０は半角が実質4/1幅で、数字に至っては圧倒的な細さがありますが可読性は正直、終わってる……（´</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="48"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="48"/>
-        <color theme="1"/>
-        <rFont val="BzなろうPゴシック50"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>｀；）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ムジルシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッシツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>アットウテキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホソ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>カドクセイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -420,12 +357,49 @@
     <t>ぜんらちゅうねんだんせい</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>無印５０は半角が実質4/1幅で、数字に至っては圧倒的な細さがありますが可読性は正直、終わってる……（´Д｀；）</t>
+    <rPh sb="0" eb="2">
+      <t>ムジルシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>アットウテキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホソ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウジキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,13 +509,6 @@
       <name val="BzなろうPゴシック50"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="36"/>
@@ -1013,6 +980,20 @@
       <sz val="100"/>
       <color rgb="FFFF99FF"/>
       <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1045,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,41 +1066,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1188,17 +1172,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1211,18 +1189,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1301,19 +1282,22 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1672,7 +1656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B7EE9-DD20-4F11-8F0B-71B12F5A6F01}">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1690,62 +1676,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
-        <v>21</v>
+      <c r="B4" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="58" t="s">
-        <v>21</v>
+      <c r="E4" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="56" t="s">
-        <v>21</v>
+      <c r="H4" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -1753,24 +1739,24 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="58" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="56" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="9"/>
@@ -1789,47 +1775,47 @@
     <row r="7" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="80" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
@@ -1844,133 +1830,131 @@
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="83" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="84" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="78" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="J13" s="84" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="54.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="50" t="s">
-        <v>23</v>
+      <c r="G15" s="89" t="s">
+        <v>22</v>
       </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="2:10" ht="61.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="54.5" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="50" t="s">
-        <v>24</v>
+      <c r="G16" s="90" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
       <c r="C17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>0</v>
@@ -1982,7 +1966,7 @@
     </row>
     <row r="18" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
       <c r="C18" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>0</v>
@@ -1994,31 +1978,31 @@
     </row>
     <row r="20" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C20" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="60" t="s">
-        <v>29</v>
+      <c r="H20" s="59" t="s">
+        <v>27</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C21" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="61" t="s">
-        <v>30</v>
+      <c r="H21" s="60" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="41" x14ac:dyDescent="0.2">
@@ -2035,50 +2019,50 @@
     </row>
     <row r="23" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C23" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="62" t="s">
-        <v>31</v>
+      <c r="H23" s="61" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C24" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="63" t="s">
-        <v>32</v>
+      <c r="H24" s="62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C25" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="64" t="s">
-        <v>33</v>
+      <c r="H25" s="63" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="41" x14ac:dyDescent="0.2">
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="65" t="s">
-        <v>34</v>
+      <c r="H26" s="64" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2092,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B2A1F9-82F2-4797-A853-CEAA57012660}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2105,94 +2089,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:4" ht="224.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" ht="104.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
-      <c r="B10" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="2.4500000000000002">
-      <c r="A11" s="86"/>
-      <c r="B11" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2218,10 +2202,10 @@
   <sheetData>
     <row r="7" spans="2:4" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="81" x14ac:dyDescent="0.2">
@@ -2229,7 +2213,7 @@
         <v>1234567890</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="23">
         <v>1234567890</v>
@@ -2237,21 +2221,21 @@
     </row>
     <row r="9" spans="2:4" ht="81" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="81" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/misc/利用サンプル.xlsx
+++ b/misc/利用サンプル.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E875F6F-E64B-45BD-9923-73767314BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81A6EF7-230D-4C93-B8B2-A2372226586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>ABCDEFGHIJKLNMOPQRSTUVWXYZabcdefghijklnmopqrstuvwxyz1234567890</t>
     <phoneticPr fontId="1"/>
@@ -394,12 +394,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>BzなろうPゴシック20-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック20-Regular.ttf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BzなろうP明朝20-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝20-Regular.ttf</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="84" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1009,62 @@
       <color theme="1"/>
       <name val="BzなろうP明朝50"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1026,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +1369,30 @@
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B7EE9-DD20-4F11-8F0B-71B12F5A6F01}">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1774,201 +1868,212 @@
     </row>
     <row r="7" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
-      <c r="C7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>27</v>
+      <c r="C7" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>27</v>
+      <c r="F7" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>27</v>
+      <c r="I7" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="96" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>28</v>
+      <c r="C8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>28</v>
+      <c r="F8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="79" t="s">
-        <v>28</v>
+      <c r="I8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
+      <c r="C9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>2</v>
+      <c r="F9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="80" t="s">
-        <v>2</v>
+      <c r="I9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
-      <c r="C10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>29</v>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>29</v>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>2</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="81" t="s">
-        <v>29</v>
+      <c r="I10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
-      <c r="C11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>30</v>
+      <c r="C11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>30</v>
+      <c r="F11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>30</v>
+      <c r="I11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
-      <c r="C12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>31</v>
+      <c r="C12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>31</v>
+      <c r="F12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>30</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="83" t="s">
-        <v>31</v>
+      <c r="I12" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="36" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G14" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="42" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J14" s="84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="54.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
     <row r="16" spans="2:10" ht="54.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="12"/>
+      <c r="B16" s="49"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="90" t="s">
-        <v>35</v>
+      <c r="G16" s="89" t="s">
+        <v>22</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="90" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
       <c r="C18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="14"/>
@@ -1976,92 +2081,112 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="20" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C20" s="44" t="s">
+    <row r="19" spans="3:10" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="21" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C21" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C22" s="44" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C21" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C22" s="13" t="s">
-        <v>1</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
-        <v>2</v>
+      <c r="H22" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C23" s="46" t="s">
-        <v>16</v>
+      <c r="C23" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="61" t="s">
-        <v>29</v>
+      <c r="H23" s="60" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C24" s="47" t="s">
-        <v>17</v>
+      <c r="C24" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="62" t="s">
-        <v>30</v>
+      <c r="H24" s="15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C25" s="48" t="s">
-        <v>18</v>
+      <c r="C25" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="63" t="s">
-        <v>31</v>
+      <c r="H25" s="61" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="41" x14ac:dyDescent="0.2">
-      <c r="C26" s="16" t="s">
-        <v>19</v>
+      <c r="C26" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C27" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="64" t="s">
         <v>32</v>
       </c>
     </row>

--- a/misc/利用サンプル.xlsx
+++ b/misc/利用サンプル.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Bz_Narow_Font\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81A6EF7-230D-4C93-B8B2-A2372226586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9A879-900A-4830-91B7-B9AA78F5E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="129">
   <si>
     <t>ABCDEFGHIJKLNMOPQRSTUVWXYZabcdefghijklnmopqrstuvwxyz1234567890</t>
     <phoneticPr fontId="1"/>
@@ -408,12 +431,284 @@
     <t>BzなろうP明朝20-Regular.ttf</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>BzなろうPゴシック100-Regular.ttf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BzなろうP明朝100-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝100-Regular.ttf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BzなろうMゴシック20-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック30-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック40-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック50-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック60-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック70-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック80-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック90-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック100-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック40-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック50-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック60-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック70-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック80-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック90-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック100-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝20-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝30-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝40-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝50-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝60-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝70-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝80-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝90-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝100-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝40-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝50-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝60-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝70-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝80-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝90-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝100-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック20-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック30-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック40-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック50-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック60-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック70-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック80-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック90-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうPゴシック100-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック20-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック30-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック40-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック50-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック60-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック70-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック80-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック90-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうMゴシック100-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック40-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック50-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック60-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック70-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック80-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック90-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろうゴシック100-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝20-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝30-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝40-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝50-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝60-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝70-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝80-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝90-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうP明朝100-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝20-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝30-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝40-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝50-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝60-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝70-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝80-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝90-Bold.ttf</t>
+  </si>
+  <si>
+    <t>BzなろうM明朝100-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝40-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝50-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝60-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝70-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝80-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝90-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Bzなろう明朝100-Bold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !"#$%&amp;'()*+,-./0123456789:;&lt;=&gt;?@ABCDEFGHIJKLMNOPQRSTUVWXYZ[\]^_`abcdefghijklmnopqrstuvwxyz{|}~</t>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hankaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zenkaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="241" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,8 +1362,1132 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="53"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="53"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="53"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="53"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="53"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="80"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="80"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="80"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="43"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="43"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="43"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="43"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +2497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,7 +2521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1392,6 +2817,459 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,11 +3626,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B7EE9-DD20-4F11-8F0B-71B12F5A6F01}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2188,6 +4064,14 @@
       <c r="G28" s="14"/>
       <c r="H28" s="64" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="41" x14ac:dyDescent="0.2">
+      <c r="C29" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="100" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2368,4 +4252,5162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95882C78-3077-4C14-9840-72AC7869639C}">
+  <dimension ref="A1:CI113"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BJ67" sqref="BJ67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.9375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.41015625" customWidth="1"/>
+    <col min="4" max="4" width="17.64453125" customWidth="1"/>
+    <col min="42" max="42" width="17.64453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI1" s="249" t="str" cm="1">
+        <f t="array" aca="1" ref="CI1" ca="1">_xlfn.TEXTJOIN("",,CHAR(ROW(INDIRECT("32:126"))))</f>
+        <v xml:space="preserve"> !"#$%&amp;'()*+,-./0123456789:;&lt;=&gt;?@ABCDEFGHIJKLMNOPQRSTUVWXYZ[\]^_`abcdefghijklmnopqrstuvwxyz{|}~</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A2" s="212" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="212"/>
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="212"/>
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="212"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="212"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="212"/>
+      <c r="AJ2" s="212"/>
+      <c r="AK2" s="212"/>
+      <c r="AL2" s="212"/>
+      <c r="AM2" s="212"/>
+      <c r="AN2" s="212"/>
+      <c r="AO2" s="212"/>
+      <c r="AP2" s="212" t="str">
+        <f>DBCS(D2)&amp;"＼"</f>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
+      <c r="AM3" s="207"/>
+      <c r="AN3" s="207"/>
+      <c r="AO3" s="207"/>
+      <c r="AP3" s="207" t="str">
+        <f t="shared" ref="AP3:AP66" si="0">DBCS(D3)&amp;"＼"</f>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="202" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="202"/>
+      <c r="AG4" s="202"/>
+      <c r="AH4" s="202"/>
+      <c r="AI4" s="202"/>
+      <c r="AJ4" s="202"/>
+      <c r="AK4" s="202"/>
+      <c r="AL4" s="202"/>
+      <c r="AM4" s="202"/>
+      <c r="AN4" s="202"/>
+      <c r="AO4" s="202"/>
+      <c r="AP4" s="202" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="193"/>
+      <c r="AK6" s="193"/>
+      <c r="AL6" s="193"/>
+      <c r="AM6" s="193"/>
+      <c r="AN6" s="193"/>
+      <c r="AO6" s="193"/>
+      <c r="AP6" s="193" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="188"/>
+      <c r="U7" s="188"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="188"/>
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="188"/>
+      <c r="AL7" s="188"/>
+      <c r="AM7" s="188"/>
+      <c r="AN7" s="188"/>
+      <c r="AO7" s="188"/>
+      <c r="AP7" s="188" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="187"/>
+      <c r="T8" s="187"/>
+      <c r="U8" s="187"/>
+      <c r="V8" s="187"/>
+      <c r="W8" s="187"/>
+      <c r="X8" s="187"/>
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187"/>
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187"/>
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187"/>
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187"/>
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187"/>
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187"/>
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187"/>
+      <c r="AM8" s="187"/>
+      <c r="AN8" s="187"/>
+      <c r="AO8" s="187"/>
+      <c r="AP8" s="187" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="9" spans="1:87" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="182"/>
+      <c r="AJ9" s="182"/>
+      <c r="AK9" s="182"/>
+      <c r="AL9" s="182"/>
+      <c r="AM9" s="182"/>
+      <c r="AN9" s="182"/>
+      <c r="AO9" s="182"/>
+      <c r="AP9" s="182" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="174"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="174"/>
+      <c r="AH10" s="174"/>
+      <c r="AI10" s="174"/>
+      <c r="AJ10" s="174"/>
+      <c r="AK10" s="174"/>
+      <c r="AL10" s="174"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="174"/>
+      <c r="AO10" s="174"/>
+      <c r="AP10" s="174" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="11" spans="1:87" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A11" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="133"/>
+      <c r="AH11" s="133"/>
+      <c r="AI11" s="133"/>
+      <c r="AJ11" s="133"/>
+      <c r="AK11" s="133"/>
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="133"/>
+      <c r="AN11" s="133"/>
+      <c r="AO11" s="133"/>
+      <c r="AP11" s="133" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A12" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="115"/>
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="115"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="13" spans="1:87" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="167"/>
+      <c r="AH13" s="167"/>
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="167"/>
+      <c r="AK13" s="167"/>
+      <c r="AL13" s="167"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="167"/>
+      <c r="AP13" s="167" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A14" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="117"/>
+      <c r="AG14" s="117"/>
+      <c r="AH14" s="117"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="117"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="15" spans="1:87" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="128"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="128"/>
+      <c r="AN15" s="128"/>
+      <c r="AO15" s="128"/>
+      <c r="AP15" s="128" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="122"/>
+      <c r="AP16" s="122" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="126"/>
+      <c r="AJ17" s="126"/>
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="126"/>
+      <c r="AO17" s="126"/>
+      <c r="AP17" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="131"/>
+      <c r="AJ18" s="131"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="131"/>
+      <c r="AM18" s="131"/>
+      <c r="AN18" s="131"/>
+      <c r="AO18" s="131"/>
+      <c r="AP18" s="131" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="102"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="102"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="102" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A20" s="220" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="220"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="170"/>
+      <c r="S20" s="170"/>
+      <c r="T20" s="170"/>
+      <c r="U20" s="170"/>
+      <c r="V20" s="170"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="170"/>
+      <c r="Y20" s="170"/>
+      <c r="Z20" s="170"/>
+      <c r="AA20" s="170"/>
+      <c r="AB20" s="170"/>
+      <c r="AC20" s="170"/>
+      <c r="AD20" s="170"/>
+      <c r="AE20" s="170"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="170"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="170"/>
+      <c r="AJ20" s="170"/>
+      <c r="AK20" s="170"/>
+      <c r="AL20" s="170"/>
+      <c r="AM20" s="170"/>
+      <c r="AN20" s="170"/>
+      <c r="AO20" s="170"/>
+      <c r="AP20" s="170" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="228" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="110"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="110"/>
+      <c r="AM21" s="110"/>
+      <c r="AN21" s="110"/>
+      <c r="AO21" s="110"/>
+      <c r="AP21" s="110" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A22" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="232" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="151"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="236" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="156" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="237" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="156"/>
+      <c r="AH24" s="156"/>
+      <c r="AI24" s="156"/>
+      <c r="AJ24" s="156"/>
+      <c r="AK24" s="156"/>
+      <c r="AL24" s="156"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="156"/>
+      <c r="AO24" s="156"/>
+      <c r="AP24" s="156" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="241" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="159"/>
+      <c r="R25" s="159"/>
+      <c r="S25" s="159"/>
+      <c r="T25" s="159"/>
+      <c r="U25" s="159"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="159"/>
+      <c r="X25" s="159"/>
+      <c r="Y25" s="159"/>
+      <c r="Z25" s="159"/>
+      <c r="AA25" s="159"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="159"/>
+      <c r="AE25" s="159"/>
+      <c r="AF25" s="159"/>
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="159"/>
+      <c r="AJ25" s="159"/>
+      <c r="AK25" s="159"/>
+      <c r="AL25" s="159"/>
+      <c r="AM25" s="159"/>
+      <c r="AN25" s="159"/>
+      <c r="AO25" s="159"/>
+      <c r="AP25" s="159" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="25" x14ac:dyDescent="0.2">
+      <c r="A26" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="248" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A27" s="214" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="214"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="214"/>
+      <c r="Z27" s="214"/>
+      <c r="AA27" s="214"/>
+      <c r="AB27" s="214"/>
+      <c r="AC27" s="214"/>
+      <c r="AD27" s="214"/>
+      <c r="AE27" s="214"/>
+      <c r="AF27" s="214"/>
+      <c r="AG27" s="214"/>
+      <c r="AH27" s="214"/>
+      <c r="AI27" s="214"/>
+      <c r="AJ27" s="214"/>
+      <c r="AK27" s="214"/>
+      <c r="AL27" s="214"/>
+      <c r="AM27" s="214"/>
+      <c r="AN27" s="214"/>
+      <c r="AO27" s="214"/>
+      <c r="AP27" s="214" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="209"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="209"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="209"/>
+      <c r="S28" s="209"/>
+      <c r="T28" s="209"/>
+      <c r="U28" s="209"/>
+      <c r="V28" s="209"/>
+      <c r="W28" s="209"/>
+      <c r="X28" s="209"/>
+      <c r="Y28" s="209"/>
+      <c r="Z28" s="209"/>
+      <c r="AA28" s="209"/>
+      <c r="AB28" s="209"/>
+      <c r="AC28" s="209"/>
+      <c r="AD28" s="209"/>
+      <c r="AE28" s="209"/>
+      <c r="AF28" s="209"/>
+      <c r="AG28" s="209"/>
+      <c r="AH28" s="209"/>
+      <c r="AI28" s="209"/>
+      <c r="AJ28" s="209"/>
+      <c r="AK28" s="209"/>
+      <c r="AL28" s="209"/>
+      <c r="AM28" s="209"/>
+      <c r="AN28" s="209"/>
+      <c r="AO28" s="209"/>
+      <c r="AP28" s="209" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="204" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="204"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="204"/>
+      <c r="AF29" s="204"/>
+      <c r="AG29" s="204"/>
+      <c r="AH29" s="204"/>
+      <c r="AI29" s="204"/>
+      <c r="AJ29" s="204"/>
+      <c r="AK29" s="204"/>
+      <c r="AL29" s="204"/>
+      <c r="AM29" s="204"/>
+      <c r="AN29" s="204"/>
+      <c r="AO29" s="204"/>
+      <c r="AP29" s="204" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="199" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
+      <c r="R30" s="199"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199"/>
+      <c r="U30" s="199"/>
+      <c r="V30" s="199"/>
+      <c r="W30" s="199"/>
+      <c r="X30" s="199"/>
+      <c r="Y30" s="199"/>
+      <c r="Z30" s="199"/>
+      <c r="AA30" s="199"/>
+      <c r="AB30" s="199"/>
+      <c r="AC30" s="199"/>
+      <c r="AD30" s="199"/>
+      <c r="AE30" s="199"/>
+      <c r="AF30" s="199"/>
+      <c r="AG30" s="199"/>
+      <c r="AH30" s="199"/>
+      <c r="AI30" s="199"/>
+      <c r="AJ30" s="199"/>
+      <c r="AK30" s="199"/>
+      <c r="AL30" s="199"/>
+      <c r="AM30" s="199"/>
+      <c r="AN30" s="199"/>
+      <c r="AO30" s="199"/>
+      <c r="AP30" s="199" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="194"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="194"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="194"/>
+      <c r="AJ31" s="194"/>
+      <c r="AK31" s="194"/>
+      <c r="AL31" s="194"/>
+      <c r="AM31" s="194"/>
+      <c r="AN31" s="194"/>
+      <c r="AO31" s="194"/>
+      <c r="AP31" s="194" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="190"/>
+      <c r="X32" s="190"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="190"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="190"/>
+      <c r="AH32" s="190"/>
+      <c r="AI32" s="190"/>
+      <c r="AJ32" s="190"/>
+      <c r="AK32" s="190"/>
+      <c r="AL32" s="190"/>
+      <c r="AM32" s="190"/>
+      <c r="AN32" s="190"/>
+      <c r="AO32" s="190"/>
+      <c r="AP32" s="190" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+      <c r="A33" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="186"/>
+      <c r="X33" s="186"/>
+      <c r="Y33" s="186"/>
+      <c r="Z33" s="186"/>
+      <c r="AA33" s="186"/>
+      <c r="AB33" s="186"/>
+      <c r="AC33" s="186"/>
+      <c r="AD33" s="186"/>
+      <c r="AE33" s="186"/>
+      <c r="AF33" s="186"/>
+      <c r="AG33" s="186"/>
+      <c r="AH33" s="186"/>
+      <c r="AI33" s="186"/>
+      <c r="AJ33" s="186"/>
+      <c r="AK33" s="186"/>
+      <c r="AL33" s="186"/>
+      <c r="AM33" s="186"/>
+      <c r="AN33" s="186"/>
+      <c r="AO33" s="186"/>
+      <c r="AP33" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="181"/>
+      <c r="S34" s="181"/>
+      <c r="T34" s="181"/>
+      <c r="U34" s="181"/>
+      <c r="V34" s="181"/>
+      <c r="W34" s="181"/>
+      <c r="X34" s="181"/>
+      <c r="Y34" s="181"/>
+      <c r="Z34" s="181"/>
+      <c r="AA34" s="181"/>
+      <c r="AB34" s="181"/>
+      <c r="AC34" s="181"/>
+      <c r="AD34" s="181"/>
+      <c r="AE34" s="181"/>
+      <c r="AF34" s="181"/>
+      <c r="AG34" s="181"/>
+      <c r="AH34" s="181"/>
+      <c r="AI34" s="181"/>
+      <c r="AJ34" s="181"/>
+      <c r="AK34" s="181"/>
+      <c r="AL34" s="181"/>
+      <c r="AM34" s="181"/>
+      <c r="AN34" s="181"/>
+      <c r="AO34" s="181"/>
+      <c r="AP34" s="181" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="175"/>
+      <c r="X35" s="175"/>
+      <c r="Y35" s="175"/>
+      <c r="Z35" s="175"/>
+      <c r="AA35" s="175"/>
+      <c r="AB35" s="175"/>
+      <c r="AC35" s="175"/>
+      <c r="AD35" s="175"/>
+      <c r="AE35" s="175"/>
+      <c r="AF35" s="175"/>
+      <c r="AG35" s="175"/>
+      <c r="AH35" s="175"/>
+      <c r="AI35" s="175"/>
+      <c r="AJ35" s="175"/>
+      <c r="AK35" s="175"/>
+      <c r="AL35" s="175"/>
+      <c r="AM35" s="175"/>
+      <c r="AN35" s="175"/>
+      <c r="AO35" s="175"/>
+      <c r="AP35" s="175" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A36" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="135"/>
+      <c r="T36" s="135"/>
+      <c r="U36" s="135"/>
+      <c r="V36" s="135"/>
+      <c r="W36" s="135"/>
+      <c r="X36" s="135"/>
+      <c r="Y36" s="135"/>
+      <c r="Z36" s="135"/>
+      <c r="AA36" s="135"/>
+      <c r="AB36" s="135"/>
+      <c r="AC36" s="135"/>
+      <c r="AD36" s="135"/>
+      <c r="AE36" s="135"/>
+      <c r="AF36" s="135"/>
+      <c r="AG36" s="135"/>
+      <c r="AH36" s="135"/>
+      <c r="AI36" s="135"/>
+      <c r="AJ36" s="135"/>
+      <c r="AK36" s="135"/>
+      <c r="AL36" s="135"/>
+      <c r="AM36" s="135"/>
+      <c r="AN36" s="135"/>
+      <c r="AO36" s="135"/>
+      <c r="AP36" s="135" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A37" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="114"/>
+      <c r="AA37" s="114"/>
+      <c r="AB37" s="114"/>
+      <c r="AC37" s="114"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="114"/>
+      <c r="AG37" s="114"/>
+      <c r="AH37" s="114"/>
+      <c r="AI37" s="114"/>
+      <c r="AJ37" s="114"/>
+      <c r="AK37" s="114"/>
+      <c r="AL37" s="114"/>
+      <c r="AM37" s="114"/>
+      <c r="AN37" s="114"/>
+      <c r="AO37" s="114"/>
+      <c r="AP37" s="114" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="171" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="171"/>
+      <c r="R38" s="171"/>
+      <c r="S38" s="171"/>
+      <c r="T38" s="171"/>
+      <c r="U38" s="171"/>
+      <c r="V38" s="171"/>
+      <c r="W38" s="171"/>
+      <c r="X38" s="171"/>
+      <c r="Y38" s="171"/>
+      <c r="Z38" s="171"/>
+      <c r="AA38" s="171"/>
+      <c r="AB38" s="171"/>
+      <c r="AC38" s="171"/>
+      <c r="AD38" s="171"/>
+      <c r="AE38" s="171"/>
+      <c r="AF38" s="171"/>
+      <c r="AG38" s="171"/>
+      <c r="AH38" s="171"/>
+      <c r="AI38" s="171"/>
+      <c r="AJ38" s="171"/>
+      <c r="AK38" s="171"/>
+      <c r="AL38" s="171"/>
+      <c r="AM38" s="171"/>
+      <c r="AN38" s="171"/>
+      <c r="AO38" s="171"/>
+      <c r="AP38" s="171" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A39" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
+      <c r="U39" s="118"/>
+      <c r="V39" s="118"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="118"/>
+      <c r="Y39" s="118"/>
+      <c r="Z39" s="118"/>
+      <c r="AA39" s="118"/>
+      <c r="AB39" s="118"/>
+      <c r="AC39" s="118"/>
+      <c r="AD39" s="118"/>
+      <c r="AE39" s="118"/>
+      <c r="AF39" s="118"/>
+      <c r="AG39" s="118"/>
+      <c r="AH39" s="118"/>
+      <c r="AI39" s="118"/>
+      <c r="AJ39" s="118"/>
+      <c r="AK39" s="118"/>
+      <c r="AL39" s="118"/>
+      <c r="AM39" s="118"/>
+      <c r="AN39" s="118"/>
+      <c r="AO39" s="118"/>
+      <c r="AP39" s="118" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="138"/>
+      <c r="Z40" s="138"/>
+      <c r="AA40" s="138"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
+      <c r="AI40" s="138"/>
+      <c r="AJ40" s="138"/>
+      <c r="AK40" s="138"/>
+      <c r="AL40" s="138"/>
+      <c r="AM40" s="138"/>
+      <c r="AN40" s="138"/>
+      <c r="AO40" s="138"/>
+      <c r="AP40" s="138" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
+      <c r="Y41" s="123"/>
+      <c r="Z41" s="123"/>
+      <c r="AA41" s="123"/>
+      <c r="AB41" s="123"/>
+      <c r="AC41" s="123"/>
+      <c r="AD41" s="123"/>
+      <c r="AE41" s="123"/>
+      <c r="AF41" s="123"/>
+      <c r="AG41" s="123"/>
+      <c r="AH41" s="123"/>
+      <c r="AI41" s="123"/>
+      <c r="AJ41" s="123"/>
+      <c r="AK41" s="123"/>
+      <c r="AL41" s="123"/>
+      <c r="AM41" s="123"/>
+      <c r="AN41" s="123"/>
+      <c r="AO41" s="123"/>
+      <c r="AP41" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
+      <c r="Q42" s="144"/>
+      <c r="R42" s="144"/>
+      <c r="S42" s="144"/>
+      <c r="T42" s="144"/>
+      <c r="U42" s="144"/>
+      <c r="V42" s="144"/>
+      <c r="W42" s="144"/>
+      <c r="X42" s="144"/>
+      <c r="Y42" s="144"/>
+      <c r="Z42" s="144"/>
+      <c r="AA42" s="144"/>
+      <c r="AB42" s="144"/>
+      <c r="AC42" s="144"/>
+      <c r="AD42" s="144"/>
+      <c r="AE42" s="144"/>
+      <c r="AF42" s="144"/>
+      <c r="AG42" s="144"/>
+      <c r="AH42" s="144"/>
+      <c r="AI42" s="144"/>
+      <c r="AJ42" s="144"/>
+      <c r="AK42" s="144"/>
+      <c r="AL42" s="144"/>
+      <c r="AM42" s="144"/>
+      <c r="AN42" s="144"/>
+      <c r="AO42" s="144"/>
+      <c r="AP42" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="147"/>
+      <c r="R43" s="147"/>
+      <c r="S43" s="147"/>
+      <c r="T43" s="147"/>
+      <c r="U43" s="147"/>
+      <c r="V43" s="147"/>
+      <c r="W43" s="147"/>
+      <c r="X43" s="147"/>
+      <c r="Y43" s="147"/>
+      <c r="Z43" s="147"/>
+      <c r="AA43" s="147"/>
+      <c r="AB43" s="147"/>
+      <c r="AC43" s="147"/>
+      <c r="AD43" s="147"/>
+      <c r="AE43" s="147"/>
+      <c r="AF43" s="147"/>
+      <c r="AG43" s="147"/>
+      <c r="AH43" s="147"/>
+      <c r="AI43" s="147"/>
+      <c r="AJ43" s="147"/>
+      <c r="AK43" s="147"/>
+      <c r="AL43" s="147"/>
+      <c r="AM43" s="147"/>
+      <c r="AN43" s="147"/>
+      <c r="AO43" s="147"/>
+      <c r="AP43" s="147" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A44" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="104"/>
+      <c r="AG44" s="104"/>
+      <c r="AH44" s="104"/>
+      <c r="AI44" s="104"/>
+      <c r="AJ44" s="104"/>
+      <c r="AK44" s="104"/>
+      <c r="AL44" s="104"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="104"/>
+      <c r="AP44" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A45" s="219" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="219"/>
+      <c r="C45" s="219"/>
+      <c r="D45" s="222" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="166"/>
+      <c r="O45" s="166"/>
+      <c r="P45" s="166"/>
+      <c r="Q45" s="166"/>
+      <c r="R45" s="166"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="166"/>
+      <c r="V45" s="166"/>
+      <c r="W45" s="166"/>
+      <c r="X45" s="166"/>
+      <c r="Y45" s="166"/>
+      <c r="Z45" s="166"/>
+      <c r="AA45" s="166"/>
+      <c r="AB45" s="166"/>
+      <c r="AC45" s="166"/>
+      <c r="AD45" s="166"/>
+      <c r="AE45" s="166"/>
+      <c r="AF45" s="166"/>
+      <c r="AG45" s="166"/>
+      <c r="AH45" s="166"/>
+      <c r="AI45" s="166"/>
+      <c r="AJ45" s="166"/>
+      <c r="AK45" s="166"/>
+      <c r="AL45" s="166"/>
+      <c r="AM45" s="166"/>
+      <c r="AN45" s="166"/>
+      <c r="AO45" s="166"/>
+      <c r="AP45" s="166" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="227" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="150"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="150"/>
+      <c r="P46" s="150"/>
+      <c r="Q46" s="150"/>
+      <c r="R46" s="150"/>
+      <c r="S46" s="150"/>
+      <c r="T46" s="150"/>
+      <c r="U46" s="150"/>
+      <c r="V46" s="150"/>
+      <c r="W46" s="150"/>
+      <c r="X46" s="150"/>
+      <c r="Y46" s="150"/>
+      <c r="Z46" s="150"/>
+      <c r="AA46" s="150"/>
+      <c r="AB46" s="150"/>
+      <c r="AC46" s="150"/>
+      <c r="AD46" s="150"/>
+      <c r="AE46" s="150"/>
+      <c r="AF46" s="150"/>
+      <c r="AG46" s="150"/>
+      <c r="AH46" s="150"/>
+      <c r="AI46" s="150"/>
+      <c r="AJ46" s="150"/>
+      <c r="AK46" s="150"/>
+      <c r="AL46" s="150"/>
+      <c r="AM46" s="150"/>
+      <c r="AN46" s="150"/>
+      <c r="AO46" s="150"/>
+      <c r="AP46" s="150" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A47" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="231" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="152"/>
+      <c r="R47" s="152"/>
+      <c r="S47" s="152"/>
+      <c r="T47" s="152"/>
+      <c r="U47" s="152"/>
+      <c r="V47" s="152"/>
+      <c r="W47" s="152"/>
+      <c r="X47" s="152"/>
+      <c r="Y47" s="152"/>
+      <c r="Z47" s="152"/>
+      <c r="AA47" s="152"/>
+      <c r="AB47" s="152"/>
+      <c r="AC47" s="152"/>
+      <c r="AD47" s="152"/>
+      <c r="AE47" s="152"/>
+      <c r="AF47" s="152"/>
+      <c r="AG47" s="152"/>
+      <c r="AH47" s="152"/>
+      <c r="AI47" s="152"/>
+      <c r="AJ47" s="152"/>
+      <c r="AK47" s="152"/>
+      <c r="AL47" s="152"/>
+      <c r="AM47" s="152"/>
+      <c r="AN47" s="152"/>
+      <c r="AO47" s="152"/>
+      <c r="AP47" s="152" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="235" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="169"/>
+      <c r="K48" s="169"/>
+      <c r="L48" s="169"/>
+      <c r="M48" s="169"/>
+      <c r="N48" s="169"/>
+      <c r="O48" s="169"/>
+      <c r="P48" s="169"/>
+      <c r="Q48" s="169"/>
+      <c r="R48" s="169"/>
+      <c r="S48" s="169"/>
+      <c r="T48" s="169"/>
+      <c r="U48" s="169"/>
+      <c r="V48" s="169"/>
+      <c r="W48" s="169"/>
+      <c r="X48" s="169"/>
+      <c r="Y48" s="169"/>
+      <c r="Z48" s="169"/>
+      <c r="AA48" s="169"/>
+      <c r="AB48" s="169"/>
+      <c r="AC48" s="169"/>
+      <c r="AD48" s="169"/>
+      <c r="AE48" s="169"/>
+      <c r="AF48" s="169"/>
+      <c r="AG48" s="169"/>
+      <c r="AH48" s="169"/>
+      <c r="AI48" s="169"/>
+      <c r="AJ48" s="169"/>
+      <c r="AK48" s="169"/>
+      <c r="AL48" s="169"/>
+      <c r="AM48" s="169"/>
+      <c r="AN48" s="169"/>
+      <c r="AO48" s="169"/>
+      <c r="AP48" s="169" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="238" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="155"/>
+      <c r="R49" s="155"/>
+      <c r="S49" s="155"/>
+      <c r="T49" s="155"/>
+      <c r="U49" s="155"/>
+      <c r="V49" s="155"/>
+      <c r="W49" s="155"/>
+      <c r="X49" s="155"/>
+      <c r="Y49" s="155"/>
+      <c r="Z49" s="155"/>
+      <c r="AA49" s="155"/>
+      <c r="AB49" s="155"/>
+      <c r="AC49" s="155"/>
+      <c r="AD49" s="155"/>
+      <c r="AE49" s="155"/>
+      <c r="AF49" s="155"/>
+      <c r="AG49" s="155"/>
+      <c r="AH49" s="155"/>
+      <c r="AI49" s="155"/>
+      <c r="AJ49" s="155"/>
+      <c r="AK49" s="155"/>
+      <c r="AL49" s="155"/>
+      <c r="AM49" s="155"/>
+      <c r="AN49" s="155"/>
+      <c r="AO49" s="155"/>
+      <c r="AP49" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="160" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="242" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="160"/>
+      <c r="P50" s="160"/>
+      <c r="Q50" s="160"/>
+      <c r="R50" s="160"/>
+      <c r="S50" s="160"/>
+      <c r="T50" s="160"/>
+      <c r="U50" s="160"/>
+      <c r="V50" s="160"/>
+      <c r="W50" s="160"/>
+      <c r="X50" s="160"/>
+      <c r="Y50" s="160"/>
+      <c r="Z50" s="160"/>
+      <c r="AA50" s="160"/>
+      <c r="AB50" s="160"/>
+      <c r="AC50" s="160"/>
+      <c r="AD50" s="160"/>
+      <c r="AE50" s="160"/>
+      <c r="AF50" s="160"/>
+      <c r="AG50" s="160"/>
+      <c r="AH50" s="160"/>
+      <c r="AI50" s="160"/>
+      <c r="AJ50" s="160"/>
+      <c r="AK50" s="160"/>
+      <c r="AL50" s="160"/>
+      <c r="AM50" s="160"/>
+      <c r="AN50" s="160"/>
+      <c r="AO50" s="160"/>
+      <c r="AP50" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" ht="25" x14ac:dyDescent="0.2">
+      <c r="A51" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="247" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="105"/>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="105"/>
+      <c r="AI51" s="105"/>
+      <c r="AJ51" s="105"/>
+      <c r="AK51" s="105"/>
+      <c r="AL51" s="105"/>
+      <c r="AM51" s="105"/>
+      <c r="AN51" s="105"/>
+      <c r="AO51" s="105"/>
+      <c r="AP51" s="105" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A52" s="215" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="215"/>
+      <c r="C52" s="215"/>
+      <c r="D52" s="215" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="215"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="215"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="215"/>
+      <c r="P52" s="215"/>
+      <c r="Q52" s="215"/>
+      <c r="R52" s="215"/>
+      <c r="S52" s="215"/>
+      <c r="T52" s="215"/>
+      <c r="U52" s="215"/>
+      <c r="V52" s="215"/>
+      <c r="W52" s="215"/>
+      <c r="X52" s="215"/>
+      <c r="Y52" s="215"/>
+      <c r="Z52" s="215"/>
+      <c r="AA52" s="215"/>
+      <c r="AB52" s="215"/>
+      <c r="AC52" s="215"/>
+      <c r="AD52" s="215"/>
+      <c r="AE52" s="215"/>
+      <c r="AF52" s="215"/>
+      <c r="AG52" s="215"/>
+      <c r="AH52" s="215"/>
+      <c r="AI52" s="215"/>
+      <c r="AJ52" s="215"/>
+      <c r="AK52" s="215"/>
+      <c r="AL52" s="215"/>
+      <c r="AM52" s="215"/>
+      <c r="AN52" s="215"/>
+      <c r="AO52" s="215"/>
+      <c r="AP52" s="215" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A53" s="210" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="210"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="210" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="210"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="210"/>
+      <c r="H53" s="210"/>
+      <c r="I53" s="210"/>
+      <c r="J53" s="210"/>
+      <c r="K53" s="210"/>
+      <c r="L53" s="210"/>
+      <c r="M53" s="210"/>
+      <c r="N53" s="210"/>
+      <c r="O53" s="210"/>
+      <c r="P53" s="210"/>
+      <c r="Q53" s="210"/>
+      <c r="R53" s="210"/>
+      <c r="S53" s="210"/>
+      <c r="T53" s="210"/>
+      <c r="U53" s="210"/>
+      <c r="V53" s="210"/>
+      <c r="W53" s="210"/>
+      <c r="X53" s="210"/>
+      <c r="Y53" s="210"/>
+      <c r="Z53" s="210"/>
+      <c r="AA53" s="210"/>
+      <c r="AB53" s="210"/>
+      <c r="AC53" s="210"/>
+      <c r="AD53" s="210"/>
+      <c r="AE53" s="210"/>
+      <c r="AF53" s="210"/>
+      <c r="AG53" s="210"/>
+      <c r="AH53" s="210"/>
+      <c r="AI53" s="210"/>
+      <c r="AJ53" s="210"/>
+      <c r="AK53" s="210"/>
+      <c r="AL53" s="210"/>
+      <c r="AM53" s="210"/>
+      <c r="AN53" s="210"/>
+      <c r="AO53" s="210"/>
+      <c r="AP53" s="210" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="205" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="205"/>
+      <c r="C54" s="205"/>
+      <c r="D54" s="205" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="205"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
+      <c r="I54" s="205"/>
+      <c r="J54" s="205"/>
+      <c r="K54" s="205"/>
+      <c r="L54" s="205"/>
+      <c r="M54" s="205"/>
+      <c r="N54" s="205"/>
+      <c r="O54" s="205"/>
+      <c r="P54" s="205"/>
+      <c r="Q54" s="205"/>
+      <c r="R54" s="205"/>
+      <c r="S54" s="205"/>
+      <c r="T54" s="205"/>
+      <c r="U54" s="205"/>
+      <c r="V54" s="205"/>
+      <c r="W54" s="205"/>
+      <c r="X54" s="205"/>
+      <c r="Y54" s="205"/>
+      <c r="Z54" s="205"/>
+      <c r="AA54" s="205"/>
+      <c r="AB54" s="205"/>
+      <c r="AC54" s="205"/>
+      <c r="AD54" s="205"/>
+      <c r="AE54" s="205"/>
+      <c r="AF54" s="205"/>
+      <c r="AG54" s="205"/>
+      <c r="AH54" s="205"/>
+      <c r="AI54" s="205"/>
+      <c r="AJ54" s="205"/>
+      <c r="AK54" s="205"/>
+      <c r="AL54" s="205"/>
+      <c r="AM54" s="205"/>
+      <c r="AN54" s="205"/>
+      <c r="AO54" s="205"/>
+      <c r="AP54" s="205" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="200" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="200"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="200" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="200"/>
+      <c r="F55" s="200"/>
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="200"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="200"/>
+      <c r="M55" s="200"/>
+      <c r="N55" s="200"/>
+      <c r="O55" s="200"/>
+      <c r="P55" s="200"/>
+      <c r="Q55" s="200"/>
+      <c r="R55" s="200"/>
+      <c r="S55" s="200"/>
+      <c r="T55" s="200"/>
+      <c r="U55" s="200"/>
+      <c r="V55" s="200"/>
+      <c r="W55" s="200"/>
+      <c r="X55" s="200"/>
+      <c r="Y55" s="200"/>
+      <c r="Z55" s="200"/>
+      <c r="AA55" s="200"/>
+      <c r="AB55" s="200"/>
+      <c r="AC55" s="200"/>
+      <c r="AD55" s="200"/>
+      <c r="AE55" s="200"/>
+      <c r="AF55" s="200"/>
+      <c r="AG55" s="200"/>
+      <c r="AH55" s="200"/>
+      <c r="AI55" s="200"/>
+      <c r="AJ55" s="200"/>
+      <c r="AK55" s="200"/>
+      <c r="AL55" s="200"/>
+      <c r="AM55" s="200"/>
+      <c r="AN55" s="200"/>
+      <c r="AO55" s="200"/>
+      <c r="AP55" s="200" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="195" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="195"/>
+      <c r="C56" s="195"/>
+      <c r="D56" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
+      <c r="K56" s="195"/>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="195"/>
+      <c r="O56" s="195"/>
+      <c r="P56" s="195"/>
+      <c r="Q56" s="195"/>
+      <c r="R56" s="195"/>
+      <c r="S56" s="195"/>
+      <c r="T56" s="195"/>
+      <c r="U56" s="195"/>
+      <c r="V56" s="195"/>
+      <c r="W56" s="195"/>
+      <c r="X56" s="195"/>
+      <c r="Y56" s="195"/>
+      <c r="Z56" s="195"/>
+      <c r="AA56" s="195"/>
+      <c r="AB56" s="195"/>
+      <c r="AC56" s="195"/>
+      <c r="AD56" s="195"/>
+      <c r="AE56" s="195"/>
+      <c r="AF56" s="195"/>
+      <c r="AG56" s="195"/>
+      <c r="AH56" s="195"/>
+      <c r="AI56" s="195"/>
+      <c r="AJ56" s="195"/>
+      <c r="AK56" s="195"/>
+      <c r="AL56" s="195"/>
+      <c r="AM56" s="195"/>
+      <c r="AN56" s="195"/>
+      <c r="AO56" s="195"/>
+      <c r="AP56" s="195" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="191"/>
+      <c r="C57" s="191"/>
+      <c r="D57" s="191" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="191"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="191"/>
+      <c r="H57" s="191"/>
+      <c r="I57" s="191"/>
+      <c r="J57" s="191"/>
+      <c r="K57" s="191"/>
+      <c r="L57" s="191"/>
+      <c r="M57" s="191"/>
+      <c r="N57" s="191"/>
+      <c r="O57" s="191"/>
+      <c r="P57" s="191"/>
+      <c r="Q57" s="191"/>
+      <c r="R57" s="191"/>
+      <c r="S57" s="191"/>
+      <c r="T57" s="191"/>
+      <c r="U57" s="191"/>
+      <c r="V57" s="191"/>
+      <c r="W57" s="191"/>
+      <c r="X57" s="191"/>
+      <c r="Y57" s="191"/>
+      <c r="Z57" s="191"/>
+      <c r="AA57" s="191"/>
+      <c r="AB57" s="191"/>
+      <c r="AC57" s="191"/>
+      <c r="AD57" s="191"/>
+      <c r="AE57" s="191"/>
+      <c r="AF57" s="191"/>
+      <c r="AG57" s="191"/>
+      <c r="AH57" s="191"/>
+      <c r="AI57" s="191"/>
+      <c r="AJ57" s="191"/>
+      <c r="AK57" s="191"/>
+      <c r="AL57" s="191"/>
+      <c r="AM57" s="191"/>
+      <c r="AN57" s="191"/>
+      <c r="AO57" s="191"/>
+      <c r="AP57" s="191" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+      <c r="A58" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="185"/>
+      <c r="C58" s="185"/>
+      <c r="D58" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="185"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="185"/>
+      <c r="H58" s="185"/>
+      <c r="I58" s="185"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="185"/>
+      <c r="L58" s="185"/>
+      <c r="M58" s="185"/>
+      <c r="N58" s="185"/>
+      <c r="O58" s="185"/>
+      <c r="P58" s="185"/>
+      <c r="Q58" s="185"/>
+      <c r="R58" s="185"/>
+      <c r="S58" s="185"/>
+      <c r="T58" s="185"/>
+      <c r="U58" s="185"/>
+      <c r="V58" s="185"/>
+      <c r="W58" s="185"/>
+      <c r="X58" s="185"/>
+      <c r="Y58" s="185"/>
+      <c r="Z58" s="185"/>
+      <c r="AA58" s="185"/>
+      <c r="AB58" s="185"/>
+      <c r="AC58" s="185"/>
+      <c r="AD58" s="185"/>
+      <c r="AE58" s="185"/>
+      <c r="AF58" s="185"/>
+      <c r="AG58" s="185"/>
+      <c r="AH58" s="185"/>
+      <c r="AI58" s="185"/>
+      <c r="AJ58" s="185"/>
+      <c r="AK58" s="185"/>
+      <c r="AL58" s="185"/>
+      <c r="AM58" s="185"/>
+      <c r="AN58" s="185"/>
+      <c r="AO58" s="185"/>
+      <c r="AP58" s="185" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="180"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="180" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="180"/>
+      <c r="F59" s="180"/>
+      <c r="G59" s="180"/>
+      <c r="H59" s="180"/>
+      <c r="I59" s="180"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="180"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="180"/>
+      <c r="N59" s="180"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="180"/>
+      <c r="R59" s="180"/>
+      <c r="S59" s="180"/>
+      <c r="T59" s="180"/>
+      <c r="U59" s="180"/>
+      <c r="V59" s="180"/>
+      <c r="W59" s="180"/>
+      <c r="X59" s="180"/>
+      <c r="Y59" s="180"/>
+      <c r="Z59" s="180"/>
+      <c r="AA59" s="180"/>
+      <c r="AB59" s="180"/>
+      <c r="AC59" s="180"/>
+      <c r="AD59" s="180"/>
+      <c r="AE59" s="180"/>
+      <c r="AF59" s="180"/>
+      <c r="AG59" s="180"/>
+      <c r="AH59" s="180"/>
+      <c r="AI59" s="180"/>
+      <c r="AJ59" s="180"/>
+      <c r="AK59" s="180"/>
+      <c r="AL59" s="180"/>
+      <c r="AM59" s="180"/>
+      <c r="AN59" s="180"/>
+      <c r="AO59" s="180"/>
+      <c r="AP59" s="180" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="176"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="176"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="176"/>
+      <c r="L60" s="176"/>
+      <c r="M60" s="176"/>
+      <c r="N60" s="176"/>
+      <c r="O60" s="176"/>
+      <c r="P60" s="176"/>
+      <c r="Q60" s="176"/>
+      <c r="R60" s="176"/>
+      <c r="S60" s="176"/>
+      <c r="T60" s="176"/>
+      <c r="U60" s="176"/>
+      <c r="V60" s="176"/>
+      <c r="W60" s="176"/>
+      <c r="X60" s="176"/>
+      <c r="Y60" s="176"/>
+      <c r="Z60" s="176"/>
+      <c r="AA60" s="176"/>
+      <c r="AB60" s="176"/>
+      <c r="AC60" s="176"/>
+      <c r="AD60" s="176"/>
+      <c r="AE60" s="176"/>
+      <c r="AF60" s="176"/>
+      <c r="AG60" s="176"/>
+      <c r="AH60" s="176"/>
+      <c r="AI60" s="176"/>
+      <c r="AJ60" s="176"/>
+      <c r="AK60" s="176"/>
+      <c r="AL60" s="176"/>
+      <c r="AM60" s="176"/>
+      <c r="AN60" s="176"/>
+      <c r="AO60" s="176"/>
+      <c r="AP60" s="176" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A61" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="136"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="136"/>
+      <c r="M61" s="136"/>
+      <c r="N61" s="136"/>
+      <c r="O61" s="136"/>
+      <c r="P61" s="136"/>
+      <c r="Q61" s="136"/>
+      <c r="R61" s="136"/>
+      <c r="S61" s="136"/>
+      <c r="T61" s="136"/>
+      <c r="U61" s="136"/>
+      <c r="V61" s="136"/>
+      <c r="W61" s="136"/>
+      <c r="X61" s="136"/>
+      <c r="Y61" s="136"/>
+      <c r="Z61" s="136"/>
+      <c r="AA61" s="136"/>
+      <c r="AB61" s="136"/>
+      <c r="AC61" s="136"/>
+      <c r="AD61" s="136"/>
+      <c r="AE61" s="136"/>
+      <c r="AF61" s="136"/>
+      <c r="AG61" s="136"/>
+      <c r="AH61" s="136"/>
+      <c r="AI61" s="136"/>
+      <c r="AJ61" s="136"/>
+      <c r="AK61" s="136"/>
+      <c r="AL61" s="136"/>
+      <c r="AM61" s="136"/>
+      <c r="AN61" s="136"/>
+      <c r="AO61" s="136"/>
+      <c r="AP61" s="136" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A62" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="113"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="113"/>
+      <c r="T62" s="113"/>
+      <c r="U62" s="113"/>
+      <c r="V62" s="113"/>
+      <c r="W62" s="113"/>
+      <c r="X62" s="113"/>
+      <c r="Y62" s="113"/>
+      <c r="Z62" s="113"/>
+      <c r="AA62" s="113"/>
+      <c r="AB62" s="113"/>
+      <c r="AC62" s="113"/>
+      <c r="AD62" s="113"/>
+      <c r="AE62" s="113"/>
+      <c r="AF62" s="113"/>
+      <c r="AG62" s="113"/>
+      <c r="AH62" s="113"/>
+      <c r="AI62" s="113"/>
+      <c r="AJ62" s="113"/>
+      <c r="AK62" s="113"/>
+      <c r="AL62" s="113"/>
+      <c r="AM62" s="113"/>
+      <c r="AN62" s="113"/>
+      <c r="AO62" s="113"/>
+      <c r="AP62" s="113" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="173" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="173"/>
+      <c r="C63" s="173"/>
+      <c r="D63" s="173" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="173"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="173"/>
+      <c r="J63" s="173"/>
+      <c r="K63" s="173"/>
+      <c r="L63" s="173"/>
+      <c r="M63" s="173"/>
+      <c r="N63" s="173"/>
+      <c r="O63" s="173"/>
+      <c r="P63" s="173"/>
+      <c r="Q63" s="173"/>
+      <c r="R63" s="173"/>
+      <c r="S63" s="173"/>
+      <c r="T63" s="173"/>
+      <c r="U63" s="173"/>
+      <c r="V63" s="173"/>
+      <c r="W63" s="173"/>
+      <c r="X63" s="173"/>
+      <c r="Y63" s="173"/>
+      <c r="Z63" s="173"/>
+      <c r="AA63" s="173"/>
+      <c r="AB63" s="173"/>
+      <c r="AC63" s="173"/>
+      <c r="AD63" s="173"/>
+      <c r="AE63" s="173"/>
+      <c r="AF63" s="173"/>
+      <c r="AG63" s="173"/>
+      <c r="AH63" s="173"/>
+      <c r="AI63" s="173"/>
+      <c r="AJ63" s="173"/>
+      <c r="AK63" s="173"/>
+      <c r="AL63" s="173"/>
+      <c r="AM63" s="173"/>
+      <c r="AN63" s="173"/>
+      <c r="AO63" s="173"/>
+      <c r="AP63" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A64" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="119"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="119"/>
+      <c r="O64" s="119"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="119"/>
+      <c r="S64" s="119"/>
+      <c r="T64" s="119"/>
+      <c r="U64" s="119"/>
+      <c r="V64" s="119"/>
+      <c r="W64" s="119"/>
+      <c r="X64" s="119"/>
+      <c r="Y64" s="119"/>
+      <c r="Z64" s="119"/>
+      <c r="AA64" s="119"/>
+      <c r="AB64" s="119"/>
+      <c r="AC64" s="119"/>
+      <c r="AD64" s="119"/>
+      <c r="AE64" s="119"/>
+      <c r="AF64" s="119"/>
+      <c r="AG64" s="119"/>
+      <c r="AH64" s="119"/>
+      <c r="AI64" s="119"/>
+      <c r="AJ64" s="119"/>
+      <c r="AK64" s="119"/>
+      <c r="AL64" s="119"/>
+      <c r="AM64" s="119"/>
+      <c r="AN64" s="119"/>
+      <c r="AO64" s="119"/>
+      <c r="AP64" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="139"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="139"/>
+      <c r="L65" s="139"/>
+      <c r="M65" s="139"/>
+      <c r="N65" s="139"/>
+      <c r="O65" s="139"/>
+      <c r="P65" s="139"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="139"/>
+      <c r="S65" s="139"/>
+      <c r="T65" s="139"/>
+      <c r="U65" s="139"/>
+      <c r="V65" s="139"/>
+      <c r="W65" s="139"/>
+      <c r="X65" s="139"/>
+      <c r="Y65" s="139"/>
+      <c r="Z65" s="139"/>
+      <c r="AA65" s="139"/>
+      <c r="AB65" s="139"/>
+      <c r="AC65" s="139"/>
+      <c r="AD65" s="139"/>
+      <c r="AE65" s="139"/>
+      <c r="AF65" s="139"/>
+      <c r="AG65" s="139"/>
+      <c r="AH65" s="139"/>
+      <c r="AI65" s="139"/>
+      <c r="AJ65" s="139"/>
+      <c r="AK65" s="139"/>
+      <c r="AL65" s="139"/>
+      <c r="AM65" s="139"/>
+      <c r="AN65" s="139"/>
+      <c r="AO65" s="139"/>
+      <c r="AP65" s="139" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" s="130" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="141"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="141"/>
+      <c r="J66" s="141"/>
+      <c r="K66" s="141"/>
+      <c r="L66" s="141"/>
+      <c r="M66" s="141"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="141"/>
+      <c r="P66" s="141"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141"/>
+      <c r="W66" s="141"/>
+      <c r="X66" s="141"/>
+      <c r="Y66" s="141"/>
+      <c r="Z66" s="141"/>
+      <c r="AA66" s="141"/>
+      <c r="AB66" s="141"/>
+      <c r="AC66" s="141"/>
+      <c r="AD66" s="141"/>
+      <c r="AE66" s="141"/>
+      <c r="AF66" s="141"/>
+      <c r="AG66" s="141"/>
+      <c r="AH66" s="141"/>
+      <c r="AI66" s="141"/>
+      <c r="AJ66" s="141"/>
+      <c r="AK66" s="141"/>
+      <c r="AL66" s="141"/>
+      <c r="AM66" s="141"/>
+      <c r="AN66" s="141"/>
+      <c r="AO66" s="141"/>
+      <c r="AP66" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="142"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
+      <c r="I67" s="142"/>
+      <c r="J67" s="142"/>
+      <c r="K67" s="142"/>
+      <c r="L67" s="142"/>
+      <c r="M67" s="142"/>
+      <c r="N67" s="142"/>
+      <c r="O67" s="142"/>
+      <c r="P67" s="142"/>
+      <c r="Q67" s="142"/>
+      <c r="R67" s="142"/>
+      <c r="S67" s="142"/>
+      <c r="T67" s="142"/>
+      <c r="U67" s="142"/>
+      <c r="V67" s="142"/>
+      <c r="W67" s="142"/>
+      <c r="X67" s="142"/>
+      <c r="Y67" s="142"/>
+      <c r="Z67" s="142"/>
+      <c r="AA67" s="142"/>
+      <c r="AB67" s="142"/>
+      <c r="AC67" s="142"/>
+      <c r="AD67" s="142"/>
+      <c r="AE67" s="142"/>
+      <c r="AF67" s="142"/>
+      <c r="AG67" s="142"/>
+      <c r="AH67" s="142"/>
+      <c r="AI67" s="142"/>
+      <c r="AJ67" s="142"/>
+      <c r="AK67" s="142"/>
+      <c r="AL67" s="142"/>
+      <c r="AM67" s="142"/>
+      <c r="AN67" s="142"/>
+      <c r="AO67" s="142"/>
+      <c r="AP67" s="142" t="str">
+        <f t="shared" ref="AP67:AP101" si="1">DBCS(D67)&amp;"＼"</f>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="146"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="146"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="146"/>
+      <c r="K68" s="146"/>
+      <c r="L68" s="146"/>
+      <c r="M68" s="146"/>
+      <c r="N68" s="146"/>
+      <c r="O68" s="146"/>
+      <c r="P68" s="146"/>
+      <c r="Q68" s="146"/>
+      <c r="R68" s="146"/>
+      <c r="S68" s="146"/>
+      <c r="T68" s="146"/>
+      <c r="U68" s="146"/>
+      <c r="V68" s="146"/>
+      <c r="W68" s="146"/>
+      <c r="X68" s="146"/>
+      <c r="Y68" s="146"/>
+      <c r="Z68" s="146"/>
+      <c r="AA68" s="146"/>
+      <c r="AB68" s="146"/>
+      <c r="AC68" s="146"/>
+      <c r="AD68" s="146"/>
+      <c r="AE68" s="146"/>
+      <c r="AF68" s="146"/>
+      <c r="AG68" s="146"/>
+      <c r="AH68" s="146"/>
+      <c r="AI68" s="146"/>
+      <c r="AJ68" s="146"/>
+      <c r="AK68" s="146"/>
+      <c r="AL68" s="146"/>
+      <c r="AM68" s="146"/>
+      <c r="AN68" s="146"/>
+      <c r="AO68" s="146"/>
+      <c r="AP68" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A69" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="106"/>
+      <c r="S69" s="106"/>
+      <c r="T69" s="106"/>
+      <c r="U69" s="106"/>
+      <c r="V69" s="106"/>
+      <c r="W69" s="106"/>
+      <c r="X69" s="106"/>
+      <c r="Y69" s="106"/>
+      <c r="Z69" s="106"/>
+      <c r="AA69" s="106"/>
+      <c r="AB69" s="106"/>
+      <c r="AC69" s="106"/>
+      <c r="AD69" s="106"/>
+      <c r="AE69" s="106"/>
+      <c r="AF69" s="106"/>
+      <c r="AG69" s="106"/>
+      <c r="AH69" s="106"/>
+      <c r="AI69" s="106"/>
+      <c r="AJ69" s="106"/>
+      <c r="AK69" s="106"/>
+      <c r="AL69" s="106"/>
+      <c r="AM69" s="106"/>
+      <c r="AN69" s="106"/>
+      <c r="AO69" s="106"/>
+      <c r="AP69" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A70" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="218"/>
+      <c r="C70" s="218"/>
+      <c r="D70" s="223" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
+      <c r="I70" s="165"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="165"/>
+      <c r="M70" s="165"/>
+      <c r="N70" s="165"/>
+      <c r="O70" s="165"/>
+      <c r="P70" s="165"/>
+      <c r="Q70" s="165"/>
+      <c r="R70" s="165"/>
+      <c r="S70" s="165"/>
+      <c r="T70" s="165"/>
+      <c r="U70" s="165"/>
+      <c r="V70" s="165"/>
+      <c r="W70" s="165"/>
+      <c r="X70" s="165"/>
+      <c r="Y70" s="165"/>
+      <c r="Z70" s="165"/>
+      <c r="AA70" s="165"/>
+      <c r="AB70" s="165"/>
+      <c r="AC70" s="165"/>
+      <c r="AD70" s="165"/>
+      <c r="AE70" s="165"/>
+      <c r="AF70" s="165"/>
+      <c r="AG70" s="165"/>
+      <c r="AH70" s="165"/>
+      <c r="AI70" s="165"/>
+      <c r="AJ70" s="165"/>
+      <c r="AK70" s="165"/>
+      <c r="AL70" s="165"/>
+      <c r="AM70" s="165"/>
+      <c r="AN70" s="165"/>
+      <c r="AO70" s="165"/>
+      <c r="AP70" s="165" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="149"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="226" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="149"/>
+      <c r="M71" s="149"/>
+      <c r="N71" s="149"/>
+      <c r="O71" s="149"/>
+      <c r="P71" s="149"/>
+      <c r="Q71" s="149"/>
+      <c r="R71" s="149"/>
+      <c r="S71" s="149"/>
+      <c r="T71" s="149"/>
+      <c r="U71" s="149"/>
+      <c r="V71" s="149"/>
+      <c r="W71" s="149"/>
+      <c r="X71" s="149"/>
+      <c r="Y71" s="149"/>
+      <c r="Z71" s="149"/>
+      <c r="AA71" s="149"/>
+      <c r="AB71" s="149"/>
+      <c r="AC71" s="149"/>
+      <c r="AD71" s="149"/>
+      <c r="AE71" s="149"/>
+      <c r="AF71" s="149"/>
+      <c r="AG71" s="149"/>
+      <c r="AH71" s="149"/>
+      <c r="AI71" s="149"/>
+      <c r="AJ71" s="149"/>
+      <c r="AK71" s="149"/>
+      <c r="AL71" s="149"/>
+      <c r="AM71" s="149"/>
+      <c r="AN71" s="149"/>
+      <c r="AO71" s="149"/>
+      <c r="AP71" s="149" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A72" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="153"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="230" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="153"/>
+      <c r="M72" s="153"/>
+      <c r="N72" s="153"/>
+      <c r="O72" s="153"/>
+      <c r="P72" s="153"/>
+      <c r="Q72" s="153"/>
+      <c r="R72" s="153"/>
+      <c r="S72" s="153"/>
+      <c r="T72" s="153"/>
+      <c r="U72" s="153"/>
+      <c r="V72" s="153"/>
+      <c r="W72" s="153"/>
+      <c r="X72" s="153"/>
+      <c r="Y72" s="153"/>
+      <c r="Z72" s="153"/>
+      <c r="AA72" s="153"/>
+      <c r="AB72" s="153"/>
+      <c r="AC72" s="153"/>
+      <c r="AD72" s="153"/>
+      <c r="AE72" s="153"/>
+      <c r="AF72" s="153"/>
+      <c r="AG72" s="153"/>
+      <c r="AH72" s="153"/>
+      <c r="AI72" s="153"/>
+      <c r="AJ72" s="153"/>
+      <c r="AK72" s="153"/>
+      <c r="AL72" s="153"/>
+      <c r="AM72" s="153"/>
+      <c r="AN72" s="153"/>
+      <c r="AO72" s="153"/>
+      <c r="AP72" s="153" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="124"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="234" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="124"/>
+      <c r="N73" s="124"/>
+      <c r="O73" s="124"/>
+      <c r="P73" s="124"/>
+      <c r="Q73" s="124"/>
+      <c r="R73" s="124"/>
+      <c r="S73" s="124"/>
+      <c r="T73" s="124"/>
+      <c r="U73" s="124"/>
+      <c r="V73" s="124"/>
+      <c r="W73" s="124"/>
+      <c r="X73" s="124"/>
+      <c r="Y73" s="124"/>
+      <c r="Z73" s="124"/>
+      <c r="AA73" s="124"/>
+      <c r="AB73" s="124"/>
+      <c r="AC73" s="124"/>
+      <c r="AD73" s="124"/>
+      <c r="AE73" s="124"/>
+      <c r="AF73" s="124"/>
+      <c r="AG73" s="124"/>
+      <c r="AH73" s="124"/>
+      <c r="AI73" s="124"/>
+      <c r="AJ73" s="124"/>
+      <c r="AK73" s="124"/>
+      <c r="AL73" s="124"/>
+      <c r="AM73" s="124"/>
+      <c r="AN73" s="124"/>
+      <c r="AO73" s="124"/>
+      <c r="AP73" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="157"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="239" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="157"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="157"/>
+      <c r="O74" s="157"/>
+      <c r="P74" s="157"/>
+      <c r="Q74" s="157"/>
+      <c r="R74" s="157"/>
+      <c r="S74" s="157"/>
+      <c r="T74" s="157"/>
+      <c r="U74" s="157"/>
+      <c r="V74" s="157"/>
+      <c r="W74" s="157"/>
+      <c r="X74" s="157"/>
+      <c r="Y74" s="157"/>
+      <c r="Z74" s="157"/>
+      <c r="AA74" s="157"/>
+      <c r="AB74" s="157"/>
+      <c r="AC74" s="157"/>
+      <c r="AD74" s="157"/>
+      <c r="AE74" s="157"/>
+      <c r="AF74" s="157"/>
+      <c r="AG74" s="157"/>
+      <c r="AH74" s="157"/>
+      <c r="AI74" s="157"/>
+      <c r="AJ74" s="157"/>
+      <c r="AK74" s="157"/>
+      <c r="AL74" s="157"/>
+      <c r="AM74" s="157"/>
+      <c r="AN74" s="157"/>
+      <c r="AO74" s="157"/>
+      <c r="AP74" s="157" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="161"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="243" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+      <c r="H75" s="161"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="161"/>
+      <c r="K75" s="161"/>
+      <c r="L75" s="161"/>
+      <c r="M75" s="161"/>
+      <c r="N75" s="161"/>
+      <c r="O75" s="161"/>
+      <c r="P75" s="161"/>
+      <c r="Q75" s="161"/>
+      <c r="R75" s="161"/>
+      <c r="S75" s="161"/>
+      <c r="T75" s="161"/>
+      <c r="U75" s="161"/>
+      <c r="V75" s="161"/>
+      <c r="W75" s="161"/>
+      <c r="X75" s="161"/>
+      <c r="Y75" s="161"/>
+      <c r="Z75" s="161"/>
+      <c r="AA75" s="161"/>
+      <c r="AB75" s="161"/>
+      <c r="AC75" s="161"/>
+      <c r="AD75" s="161"/>
+      <c r="AE75" s="161"/>
+      <c r="AF75" s="161"/>
+      <c r="AG75" s="161"/>
+      <c r="AH75" s="161"/>
+      <c r="AI75" s="161"/>
+      <c r="AJ75" s="161"/>
+      <c r="AK75" s="161"/>
+      <c r="AL75" s="161"/>
+      <c r="AM75" s="161"/>
+      <c r="AN75" s="161"/>
+      <c r="AO75" s="161"/>
+      <c r="AP75" s="161" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" ht="25" x14ac:dyDescent="0.2">
+      <c r="A76" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="246" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="107"/>
+      <c r="K76" s="107"/>
+      <c r="L76" s="107"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="107"/>
+      <c r="O76" s="107"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="107"/>
+      <c r="U76" s="107"/>
+      <c r="V76" s="107"/>
+      <c r="W76" s="107"/>
+      <c r="X76" s="107"/>
+      <c r="Y76" s="107"/>
+      <c r="Z76" s="107"/>
+      <c r="AA76" s="107"/>
+      <c r="AB76" s="107"/>
+      <c r="AC76" s="107"/>
+      <c r="AD76" s="107"/>
+      <c r="AE76" s="107"/>
+      <c r="AF76" s="107"/>
+      <c r="AG76" s="107"/>
+      <c r="AH76" s="107"/>
+      <c r="AI76" s="107"/>
+      <c r="AJ76" s="107"/>
+      <c r="AK76" s="107"/>
+      <c r="AL76" s="107"/>
+      <c r="AM76" s="107"/>
+      <c r="AN76" s="107"/>
+      <c r="AO76" s="107"/>
+      <c r="AP76" s="107" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A77" s="216" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="216"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="216" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="216"/>
+      <c r="F77" s="216"/>
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
+      <c r="I77" s="216"/>
+      <c r="J77" s="216"/>
+      <c r="K77" s="216"/>
+      <c r="L77" s="216"/>
+      <c r="M77" s="216"/>
+      <c r="N77" s="216"/>
+      <c r="O77" s="216"/>
+      <c r="P77" s="216"/>
+      <c r="Q77" s="216"/>
+      <c r="R77" s="216"/>
+      <c r="S77" s="216"/>
+      <c r="T77" s="216"/>
+      <c r="U77" s="216"/>
+      <c r="V77" s="216"/>
+      <c r="W77" s="216"/>
+      <c r="X77" s="216"/>
+      <c r="Y77" s="216"/>
+      <c r="Z77" s="216"/>
+      <c r="AA77" s="216"/>
+      <c r="AB77" s="216"/>
+      <c r="AC77" s="216"/>
+      <c r="AD77" s="216"/>
+      <c r="AE77" s="216"/>
+      <c r="AF77" s="216"/>
+      <c r="AG77" s="216"/>
+      <c r="AH77" s="216"/>
+      <c r="AI77" s="216"/>
+      <c r="AJ77" s="216"/>
+      <c r="AK77" s="216"/>
+      <c r="AL77" s="216"/>
+      <c r="AM77" s="216"/>
+      <c r="AN77" s="216"/>
+      <c r="AO77" s="216"/>
+      <c r="AP77" s="216" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A78" s="211" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="211"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="211" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="211"/>
+      <c r="F78" s="211"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="211"/>
+      <c r="I78" s="211"/>
+      <c r="J78" s="211"/>
+      <c r="K78" s="211"/>
+      <c r="L78" s="211"/>
+      <c r="M78" s="211"/>
+      <c r="N78" s="211"/>
+      <c r="O78" s="211"/>
+      <c r="P78" s="211"/>
+      <c r="Q78" s="211"/>
+      <c r="R78" s="211"/>
+      <c r="S78" s="211"/>
+      <c r="T78" s="211"/>
+      <c r="U78" s="211"/>
+      <c r="V78" s="211"/>
+      <c r="W78" s="211"/>
+      <c r="X78" s="211"/>
+      <c r="Y78" s="211"/>
+      <c r="Z78" s="211"/>
+      <c r="AA78" s="211"/>
+      <c r="AB78" s="211"/>
+      <c r="AC78" s="211"/>
+      <c r="AD78" s="211"/>
+      <c r="AE78" s="211"/>
+      <c r="AF78" s="211"/>
+      <c r="AG78" s="211"/>
+      <c r="AH78" s="211"/>
+      <c r="AI78" s="211"/>
+      <c r="AJ78" s="211"/>
+      <c r="AK78" s="211"/>
+      <c r="AL78" s="211"/>
+      <c r="AM78" s="211"/>
+      <c r="AN78" s="211"/>
+      <c r="AO78" s="211"/>
+      <c r="AP78" s="211" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="206" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="206"/>
+      <c r="C79" s="206"/>
+      <c r="D79" s="206" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="206"/>
+      <c r="F79" s="206"/>
+      <c r="G79" s="206"/>
+      <c r="H79" s="206"/>
+      <c r="I79" s="206"/>
+      <c r="J79" s="206"/>
+      <c r="K79" s="206"/>
+      <c r="L79" s="206"/>
+      <c r="M79" s="206"/>
+      <c r="N79" s="206"/>
+      <c r="O79" s="206"/>
+      <c r="P79" s="206"/>
+      <c r="Q79" s="206"/>
+      <c r="R79" s="206"/>
+      <c r="S79" s="206"/>
+      <c r="T79" s="206"/>
+      <c r="U79" s="206"/>
+      <c r="V79" s="206"/>
+      <c r="W79" s="206"/>
+      <c r="X79" s="206"/>
+      <c r="Y79" s="206"/>
+      <c r="Z79" s="206"/>
+      <c r="AA79" s="206"/>
+      <c r="AB79" s="206"/>
+      <c r="AC79" s="206"/>
+      <c r="AD79" s="206"/>
+      <c r="AE79" s="206"/>
+      <c r="AF79" s="206"/>
+      <c r="AG79" s="206"/>
+      <c r="AH79" s="206"/>
+      <c r="AI79" s="206"/>
+      <c r="AJ79" s="206"/>
+      <c r="AK79" s="206"/>
+      <c r="AL79" s="206"/>
+      <c r="AM79" s="206"/>
+      <c r="AN79" s="206"/>
+      <c r="AO79" s="206"/>
+      <c r="AP79" s="206" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="201"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="201"/>
+      <c r="F80" s="201"/>
+      <c r="G80" s="201"/>
+      <c r="H80" s="201"/>
+      <c r="I80" s="201"/>
+      <c r="J80" s="201"/>
+      <c r="K80" s="201"/>
+      <c r="L80" s="201"/>
+      <c r="M80" s="201"/>
+      <c r="N80" s="201"/>
+      <c r="O80" s="201"/>
+      <c r="P80" s="201"/>
+      <c r="Q80" s="201"/>
+      <c r="R80" s="201"/>
+      <c r="S80" s="201"/>
+      <c r="T80" s="201"/>
+      <c r="U80" s="201"/>
+      <c r="V80" s="201"/>
+      <c r="W80" s="201"/>
+      <c r="X80" s="201"/>
+      <c r="Y80" s="201"/>
+      <c r="Z80" s="201"/>
+      <c r="AA80" s="201"/>
+      <c r="AB80" s="201"/>
+      <c r="AC80" s="201"/>
+      <c r="AD80" s="201"/>
+      <c r="AE80" s="201"/>
+      <c r="AF80" s="201"/>
+      <c r="AG80" s="201"/>
+      <c r="AH80" s="201"/>
+      <c r="AI80" s="201"/>
+      <c r="AJ80" s="201"/>
+      <c r="AK80" s="201"/>
+      <c r="AL80" s="201"/>
+      <c r="AM80" s="201"/>
+      <c r="AN80" s="201"/>
+      <c r="AO80" s="201"/>
+      <c r="AP80" s="201" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="196"/>
+      <c r="C81" s="196"/>
+      <c r="D81" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="196"/>
+      <c r="F81" s="196"/>
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
+      <c r="J81" s="196"/>
+      <c r="K81" s="196"/>
+      <c r="L81" s="196"/>
+      <c r="M81" s="196"/>
+      <c r="N81" s="196"/>
+      <c r="O81" s="196"/>
+      <c r="P81" s="196"/>
+      <c r="Q81" s="196"/>
+      <c r="R81" s="196"/>
+      <c r="S81" s="196"/>
+      <c r="T81" s="196"/>
+      <c r="U81" s="196"/>
+      <c r="V81" s="196"/>
+      <c r="W81" s="196"/>
+      <c r="X81" s="196"/>
+      <c r="Y81" s="196"/>
+      <c r="Z81" s="196"/>
+      <c r="AA81" s="196"/>
+      <c r="AB81" s="196"/>
+      <c r="AC81" s="196"/>
+      <c r="AD81" s="196"/>
+      <c r="AE81" s="196"/>
+      <c r="AF81" s="196"/>
+      <c r="AG81" s="196"/>
+      <c r="AH81" s="196"/>
+      <c r="AI81" s="196"/>
+      <c r="AJ81" s="196"/>
+      <c r="AK81" s="196"/>
+      <c r="AL81" s="196"/>
+      <c r="AM81" s="196"/>
+      <c r="AN81" s="196"/>
+      <c r="AO81" s="196"/>
+      <c r="AP81" s="196" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="192" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="192"/>
+      <c r="C82" s="192"/>
+      <c r="D82" s="192" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="192"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="192"/>
+      <c r="H82" s="192"/>
+      <c r="I82" s="192"/>
+      <c r="J82" s="192"/>
+      <c r="K82" s="192"/>
+      <c r="L82" s="192"/>
+      <c r="M82" s="192"/>
+      <c r="N82" s="192"/>
+      <c r="O82" s="192"/>
+      <c r="P82" s="192"/>
+      <c r="Q82" s="192"/>
+      <c r="R82" s="192"/>
+      <c r="S82" s="192"/>
+      <c r="T82" s="192"/>
+      <c r="U82" s="192"/>
+      <c r="V82" s="192"/>
+      <c r="W82" s="192"/>
+      <c r="X82" s="192"/>
+      <c r="Y82" s="192"/>
+      <c r="Z82" s="192"/>
+      <c r="AA82" s="192"/>
+      <c r="AB82" s="192"/>
+      <c r="AC82" s="192"/>
+      <c r="AD82" s="192"/>
+      <c r="AE82" s="192"/>
+      <c r="AF82" s="192"/>
+      <c r="AG82" s="192"/>
+      <c r="AH82" s="192"/>
+      <c r="AI82" s="192"/>
+      <c r="AJ82" s="192"/>
+      <c r="AK82" s="192"/>
+      <c r="AL82" s="192"/>
+      <c r="AM82" s="192"/>
+      <c r="AN82" s="192"/>
+      <c r="AO82" s="192"/>
+      <c r="AP82" s="192" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+      <c r="A83" s="183" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="183"/>
+      <c r="C83" s="183"/>
+      <c r="D83" s="183" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="183"/>
+      <c r="F83" s="183"/>
+      <c r="G83" s="183"/>
+      <c r="H83" s="183"/>
+      <c r="I83" s="183"/>
+      <c r="J83" s="183"/>
+      <c r="K83" s="183"/>
+      <c r="L83" s="183"/>
+      <c r="M83" s="183"/>
+      <c r="N83" s="183"/>
+      <c r="O83" s="183"/>
+      <c r="P83" s="183"/>
+      <c r="Q83" s="183"/>
+      <c r="R83" s="183"/>
+      <c r="S83" s="183"/>
+      <c r="T83" s="183"/>
+      <c r="U83" s="183"/>
+      <c r="V83" s="183"/>
+      <c r="W83" s="183"/>
+      <c r="X83" s="183"/>
+      <c r="Y83" s="183"/>
+      <c r="Z83" s="183"/>
+      <c r="AA83" s="183"/>
+      <c r="AB83" s="183"/>
+      <c r="AC83" s="183"/>
+      <c r="AD83" s="183"/>
+      <c r="AE83" s="183"/>
+      <c r="AF83" s="183"/>
+      <c r="AG83" s="183"/>
+      <c r="AH83" s="183"/>
+      <c r="AI83" s="183"/>
+      <c r="AJ83" s="183"/>
+      <c r="AK83" s="183"/>
+      <c r="AL83" s="183"/>
+      <c r="AM83" s="183"/>
+      <c r="AN83" s="183"/>
+      <c r="AO83" s="183"/>
+      <c r="AP83" s="183" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A84" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="178"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="178"/>
+      <c r="F84" s="178"/>
+      <c r="G84" s="178"/>
+      <c r="H84" s="178"/>
+      <c r="I84" s="178"/>
+      <c r="J84" s="178"/>
+      <c r="K84" s="178"/>
+      <c r="L84" s="178"/>
+      <c r="M84" s="178"/>
+      <c r="N84" s="178"/>
+      <c r="O84" s="178"/>
+      <c r="P84" s="178"/>
+      <c r="Q84" s="178"/>
+      <c r="R84" s="178"/>
+      <c r="S84" s="178"/>
+      <c r="T84" s="178"/>
+      <c r="U84" s="178"/>
+      <c r="V84" s="178"/>
+      <c r="W84" s="178"/>
+      <c r="X84" s="178"/>
+      <c r="Y84" s="178"/>
+      <c r="Z84" s="178"/>
+      <c r="AA84" s="178"/>
+      <c r="AB84" s="178"/>
+      <c r="AC84" s="178"/>
+      <c r="AD84" s="178"/>
+      <c r="AE84" s="178"/>
+      <c r="AF84" s="178"/>
+      <c r="AG84" s="178"/>
+      <c r="AH84" s="178"/>
+      <c r="AI84" s="178"/>
+      <c r="AJ84" s="178"/>
+      <c r="AK84" s="178"/>
+      <c r="AL84" s="178"/>
+      <c r="AM84" s="178"/>
+      <c r="AN84" s="178"/>
+      <c r="AO84" s="178"/>
+      <c r="AP84" s="178" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="177"/>
+      <c r="C85" s="177"/>
+      <c r="D85" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="177"/>
+      <c r="F85" s="177"/>
+      <c r="G85" s="177"/>
+      <c r="H85" s="177"/>
+      <c r="I85" s="177"/>
+      <c r="J85" s="177"/>
+      <c r="K85" s="177"/>
+      <c r="L85" s="177"/>
+      <c r="M85" s="177"/>
+      <c r="N85" s="177"/>
+      <c r="O85" s="177"/>
+      <c r="P85" s="177"/>
+      <c r="Q85" s="177"/>
+      <c r="R85" s="177"/>
+      <c r="S85" s="177"/>
+      <c r="T85" s="177"/>
+      <c r="U85" s="177"/>
+      <c r="V85" s="177"/>
+      <c r="W85" s="177"/>
+      <c r="X85" s="177"/>
+      <c r="Y85" s="177"/>
+      <c r="Z85" s="177"/>
+      <c r="AA85" s="177"/>
+      <c r="AB85" s="177"/>
+      <c r="AC85" s="177"/>
+      <c r="AD85" s="177"/>
+      <c r="AE85" s="177"/>
+      <c r="AF85" s="177"/>
+      <c r="AG85" s="177"/>
+      <c r="AH85" s="177"/>
+      <c r="AI85" s="177"/>
+      <c r="AJ85" s="177"/>
+      <c r="AK85" s="177"/>
+      <c r="AL85" s="177"/>
+      <c r="AM85" s="177"/>
+      <c r="AN85" s="177"/>
+      <c r="AO85" s="177"/>
+      <c r="AP85" s="177" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A86" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
+      <c r="O86" s="137"/>
+      <c r="P86" s="137"/>
+      <c r="Q86" s="137"/>
+      <c r="R86" s="137"/>
+      <c r="S86" s="137"/>
+      <c r="T86" s="137"/>
+      <c r="U86" s="137"/>
+      <c r="V86" s="137"/>
+      <c r="W86" s="137"/>
+      <c r="X86" s="137"/>
+      <c r="Y86" s="137"/>
+      <c r="Z86" s="137"/>
+      <c r="AA86" s="137"/>
+      <c r="AB86" s="137"/>
+      <c r="AC86" s="137"/>
+      <c r="AD86" s="137"/>
+      <c r="AE86" s="137"/>
+      <c r="AF86" s="137"/>
+      <c r="AG86" s="137"/>
+      <c r="AH86" s="137"/>
+      <c r="AI86" s="137"/>
+      <c r="AJ86" s="137"/>
+      <c r="AK86" s="137"/>
+      <c r="AL86" s="137"/>
+      <c r="AM86" s="137"/>
+      <c r="AN86" s="137"/>
+      <c r="AO86" s="137"/>
+      <c r="AP86" s="137" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A87" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="112"/>
+      <c r="R87" s="112"/>
+      <c r="S87" s="112"/>
+      <c r="T87" s="112"/>
+      <c r="U87" s="112"/>
+      <c r="V87" s="112"/>
+      <c r="W87" s="112"/>
+      <c r="X87" s="112"/>
+      <c r="Y87" s="112"/>
+      <c r="Z87" s="112"/>
+      <c r="AA87" s="112"/>
+      <c r="AB87" s="112"/>
+      <c r="AC87" s="112"/>
+      <c r="AD87" s="112"/>
+      <c r="AE87" s="112"/>
+      <c r="AF87" s="112"/>
+      <c r="AG87" s="112"/>
+      <c r="AH87" s="112"/>
+      <c r="AI87" s="112"/>
+      <c r="AJ87" s="112"/>
+      <c r="AK87" s="112"/>
+      <c r="AL87" s="112"/>
+      <c r="AM87" s="112"/>
+      <c r="AN87" s="112"/>
+      <c r="AO87" s="112"/>
+      <c r="AP87" s="112" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="172" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="172"/>
+      <c r="H88" s="172"/>
+      <c r="I88" s="172"/>
+      <c r="J88" s="172"/>
+      <c r="K88" s="172"/>
+      <c r="L88" s="172"/>
+      <c r="M88" s="172"/>
+      <c r="N88" s="172"/>
+      <c r="O88" s="172"/>
+      <c r="P88" s="172"/>
+      <c r="Q88" s="172"/>
+      <c r="R88" s="172"/>
+      <c r="S88" s="172"/>
+      <c r="T88" s="172"/>
+      <c r="U88" s="172"/>
+      <c r="V88" s="172"/>
+      <c r="W88" s="172"/>
+      <c r="X88" s="172"/>
+      <c r="Y88" s="172"/>
+      <c r="Z88" s="172"/>
+      <c r="AA88" s="172"/>
+      <c r="AB88" s="172"/>
+      <c r="AC88" s="172"/>
+      <c r="AD88" s="172"/>
+      <c r="AE88" s="172"/>
+      <c r="AF88" s="172"/>
+      <c r="AG88" s="172"/>
+      <c r="AH88" s="172"/>
+      <c r="AI88" s="172"/>
+      <c r="AJ88" s="172"/>
+      <c r="AK88" s="172"/>
+      <c r="AL88" s="172"/>
+      <c r="AM88" s="172"/>
+      <c r="AN88" s="172"/>
+      <c r="AO88" s="172"/>
+      <c r="AP88" s="172" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A89" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="120"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="120"/>
+      <c r="F89" s="120"/>
+      <c r="G89" s="120"/>
+      <c r="H89" s="120"/>
+      <c r="I89" s="120"/>
+      <c r="J89" s="120"/>
+      <c r="K89" s="120"/>
+      <c r="L89" s="120"/>
+      <c r="M89" s="120"/>
+      <c r="N89" s="120"/>
+      <c r="O89" s="120"/>
+      <c r="P89" s="120"/>
+      <c r="Q89" s="120"/>
+      <c r="R89" s="120"/>
+      <c r="S89" s="120"/>
+      <c r="T89" s="120"/>
+      <c r="U89" s="120"/>
+      <c r="V89" s="120"/>
+      <c r="W89" s="120"/>
+      <c r="X89" s="120"/>
+      <c r="Y89" s="120"/>
+      <c r="Z89" s="120"/>
+      <c r="AA89" s="120"/>
+      <c r="AB89" s="120"/>
+      <c r="AC89" s="120"/>
+      <c r="AD89" s="120"/>
+      <c r="AE89" s="120"/>
+      <c r="AF89" s="120"/>
+      <c r="AG89" s="120"/>
+      <c r="AH89" s="120"/>
+      <c r="AI89" s="120"/>
+      <c r="AJ89" s="120"/>
+      <c r="AK89" s="120"/>
+      <c r="AL89" s="120"/>
+      <c r="AM89" s="120"/>
+      <c r="AN89" s="120"/>
+      <c r="AO89" s="120"/>
+      <c r="AP89" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="140"/>
+      <c r="K90" s="140"/>
+      <c r="L90" s="140"/>
+      <c r="M90" s="140"/>
+      <c r="N90" s="140"/>
+      <c r="O90" s="140"/>
+      <c r="P90" s="140"/>
+      <c r="Q90" s="140"/>
+      <c r="R90" s="140"/>
+      <c r="S90" s="140"/>
+      <c r="T90" s="140"/>
+      <c r="U90" s="140"/>
+      <c r="V90" s="140"/>
+      <c r="W90" s="140"/>
+      <c r="X90" s="140"/>
+      <c r="Y90" s="140"/>
+      <c r="Z90" s="140"/>
+      <c r="AA90" s="140"/>
+      <c r="AB90" s="140"/>
+      <c r="AC90" s="140"/>
+      <c r="AD90" s="140"/>
+      <c r="AE90" s="140"/>
+      <c r="AF90" s="140"/>
+      <c r="AG90" s="140"/>
+      <c r="AH90" s="140"/>
+      <c r="AI90" s="140"/>
+      <c r="AJ90" s="140"/>
+      <c r="AK90" s="140"/>
+      <c r="AL90" s="140"/>
+      <c r="AM90" s="140"/>
+      <c r="AN90" s="140"/>
+      <c r="AO90" s="140"/>
+      <c r="AP90" s="140" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="125"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="125"/>
+      <c r="F91" s="125"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="125"/>
+      <c r="I91" s="125"/>
+      <c r="J91" s="125"/>
+      <c r="K91" s="125"/>
+      <c r="L91" s="125"/>
+      <c r="M91" s="125"/>
+      <c r="N91" s="125"/>
+      <c r="O91" s="125"/>
+      <c r="P91" s="125"/>
+      <c r="Q91" s="125"/>
+      <c r="R91" s="125"/>
+      <c r="S91" s="125"/>
+      <c r="T91" s="125"/>
+      <c r="U91" s="125"/>
+      <c r="V91" s="125"/>
+      <c r="W91" s="125"/>
+      <c r="X91" s="125"/>
+      <c r="Y91" s="125"/>
+      <c r="Z91" s="125"/>
+      <c r="AA91" s="125"/>
+      <c r="AB91" s="125"/>
+      <c r="AC91" s="125"/>
+      <c r="AD91" s="125"/>
+      <c r="AE91" s="125"/>
+      <c r="AF91" s="125"/>
+      <c r="AG91" s="125"/>
+      <c r="AH91" s="125"/>
+      <c r="AI91" s="125"/>
+      <c r="AJ91" s="125"/>
+      <c r="AK91" s="125"/>
+      <c r="AL91" s="125"/>
+      <c r="AM91" s="125"/>
+      <c r="AN91" s="125"/>
+      <c r="AO91" s="125"/>
+      <c r="AP91" s="125" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="143"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="143"/>
+      <c r="F92" s="143"/>
+      <c r="G92" s="143"/>
+      <c r="H92" s="143"/>
+      <c r="I92" s="143"/>
+      <c r="J92" s="143"/>
+      <c r="K92" s="143"/>
+      <c r="L92" s="143"/>
+      <c r="M92" s="143"/>
+      <c r="N92" s="143"/>
+      <c r="O92" s="143"/>
+      <c r="P92" s="143"/>
+      <c r="Q92" s="143"/>
+      <c r="R92" s="143"/>
+      <c r="S92" s="143"/>
+      <c r="T92" s="143"/>
+      <c r="U92" s="143"/>
+      <c r="V92" s="143"/>
+      <c r="W92" s="143"/>
+      <c r="X92" s="143"/>
+      <c r="Y92" s="143"/>
+      <c r="Z92" s="143"/>
+      <c r="AA92" s="143"/>
+      <c r="AB92" s="143"/>
+      <c r="AC92" s="143"/>
+      <c r="AD92" s="143"/>
+      <c r="AE92" s="143"/>
+      <c r="AF92" s="143"/>
+      <c r="AG92" s="143"/>
+      <c r="AH92" s="143"/>
+      <c r="AI92" s="143"/>
+      <c r="AJ92" s="143"/>
+      <c r="AK92" s="143"/>
+      <c r="AL92" s="143"/>
+      <c r="AM92" s="143"/>
+      <c r="AN92" s="143"/>
+      <c r="AO92" s="143"/>
+      <c r="AP92" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A93" s="145" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="145"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="145"/>
+      <c r="F93" s="145"/>
+      <c r="G93" s="145"/>
+      <c r="H93" s="145"/>
+      <c r="I93" s="145"/>
+      <c r="J93" s="145"/>
+      <c r="K93" s="145"/>
+      <c r="L93" s="145"/>
+      <c r="M93" s="145"/>
+      <c r="N93" s="145"/>
+      <c r="O93" s="145"/>
+      <c r="P93" s="145"/>
+      <c r="Q93" s="145"/>
+      <c r="R93" s="145"/>
+      <c r="S93" s="145"/>
+      <c r="T93" s="145"/>
+      <c r="U93" s="145"/>
+      <c r="V93" s="145"/>
+      <c r="W93" s="145"/>
+      <c r="X93" s="145"/>
+      <c r="Y93" s="145"/>
+      <c r="Z93" s="145"/>
+      <c r="AA93" s="145"/>
+      <c r="AB93" s="145"/>
+      <c r="AC93" s="145"/>
+      <c r="AD93" s="145"/>
+      <c r="AE93" s="145"/>
+      <c r="AF93" s="145"/>
+      <c r="AG93" s="145"/>
+      <c r="AH93" s="145"/>
+      <c r="AI93" s="145"/>
+      <c r="AJ93" s="145"/>
+      <c r="AK93" s="145"/>
+      <c r="AL93" s="145"/>
+      <c r="AM93" s="145"/>
+      <c r="AN93" s="145"/>
+      <c r="AO93" s="145"/>
+      <c r="AP93" s="145" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A94" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="108"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="108"/>
+      <c r="K94" s="108"/>
+      <c r="L94" s="108"/>
+      <c r="M94" s="108"/>
+      <c r="N94" s="108"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="108"/>
+      <c r="Q94" s="108"/>
+      <c r="R94" s="108"/>
+      <c r="S94" s="108"/>
+      <c r="T94" s="108"/>
+      <c r="U94" s="108"/>
+      <c r="V94" s="108"/>
+      <c r="W94" s="108"/>
+      <c r="X94" s="108"/>
+      <c r="Y94" s="108"/>
+      <c r="Z94" s="108"/>
+      <c r="AA94" s="108"/>
+      <c r="AB94" s="108"/>
+      <c r="AC94" s="108"/>
+      <c r="AD94" s="108"/>
+      <c r="AE94" s="108"/>
+      <c r="AF94" s="108"/>
+      <c r="AG94" s="108"/>
+      <c r="AH94" s="108"/>
+      <c r="AI94" s="108"/>
+      <c r="AJ94" s="108"/>
+      <c r="AK94" s="108"/>
+      <c r="AL94" s="108"/>
+      <c r="AM94" s="108"/>
+      <c r="AN94" s="108"/>
+      <c r="AO94" s="108"/>
+      <c r="AP94" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A95" s="217" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="217"/>
+      <c r="C95" s="217"/>
+      <c r="D95" s="224" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="163"/>
+      <c r="F95" s="163"/>
+      <c r="G95" s="163"/>
+      <c r="H95" s="163"/>
+      <c r="I95" s="163"/>
+      <c r="J95" s="163"/>
+      <c r="K95" s="163"/>
+      <c r="L95" s="163"/>
+      <c r="M95" s="163"/>
+      <c r="N95" s="163"/>
+      <c r="O95" s="163"/>
+      <c r="P95" s="163"/>
+      <c r="Q95" s="163"/>
+      <c r="R95" s="163"/>
+      <c r="S95" s="163"/>
+      <c r="T95" s="163"/>
+      <c r="U95" s="163"/>
+      <c r="V95" s="163"/>
+      <c r="W95" s="163"/>
+      <c r="X95" s="163"/>
+      <c r="Y95" s="163"/>
+      <c r="Z95" s="163"/>
+      <c r="AA95" s="163"/>
+      <c r="AB95" s="163"/>
+      <c r="AC95" s="163"/>
+      <c r="AD95" s="163"/>
+      <c r="AE95" s="163"/>
+      <c r="AF95" s="163"/>
+      <c r="AG95" s="163"/>
+      <c r="AH95" s="163"/>
+      <c r="AI95" s="163"/>
+      <c r="AJ95" s="163"/>
+      <c r="AK95" s="163"/>
+      <c r="AL95" s="163"/>
+      <c r="AM95" s="163"/>
+      <c r="AN95" s="163"/>
+      <c r="AO95" s="163"/>
+      <c r="AP95" s="163" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="148"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="225" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="148"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="148"/>
+      <c r="I96" s="148"/>
+      <c r="J96" s="148"/>
+      <c r="K96" s="148"/>
+      <c r="L96" s="148"/>
+      <c r="M96" s="148"/>
+      <c r="N96" s="148"/>
+      <c r="O96" s="148"/>
+      <c r="P96" s="148"/>
+      <c r="Q96" s="148"/>
+      <c r="R96" s="148"/>
+      <c r="S96" s="148"/>
+      <c r="T96" s="148"/>
+      <c r="U96" s="148"/>
+      <c r="V96" s="148"/>
+      <c r="W96" s="148"/>
+      <c r="X96" s="148"/>
+      <c r="Y96" s="148"/>
+      <c r="Z96" s="148"/>
+      <c r="AA96" s="148"/>
+      <c r="AB96" s="148"/>
+      <c r="AC96" s="148"/>
+      <c r="AD96" s="148"/>
+      <c r="AE96" s="148"/>
+      <c r="AF96" s="148"/>
+      <c r="AG96" s="148"/>
+      <c r="AH96" s="148"/>
+      <c r="AI96" s="148"/>
+      <c r="AJ96" s="148"/>
+      <c r="AK96" s="148"/>
+      <c r="AL96" s="148"/>
+      <c r="AM96" s="148"/>
+      <c r="AN96" s="148"/>
+      <c r="AO96" s="148"/>
+      <c r="AP96" s="148" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A97" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="154"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="229" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
+      <c r="M97" s="154"/>
+      <c r="N97" s="154"/>
+      <c r="O97" s="154"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="154"/>
+      <c r="R97" s="154"/>
+      <c r="S97" s="154"/>
+      <c r="T97" s="154"/>
+      <c r="U97" s="154"/>
+      <c r="V97" s="154"/>
+      <c r="W97" s="154"/>
+      <c r="X97" s="154"/>
+      <c r="Y97" s="154"/>
+      <c r="Z97" s="154"/>
+      <c r="AA97" s="154"/>
+      <c r="AB97" s="154"/>
+      <c r="AC97" s="154"/>
+      <c r="AD97" s="154"/>
+      <c r="AE97" s="154"/>
+      <c r="AF97" s="154"/>
+      <c r="AG97" s="154"/>
+      <c r="AH97" s="154"/>
+      <c r="AI97" s="154"/>
+      <c r="AJ97" s="154"/>
+      <c r="AK97" s="154"/>
+      <c r="AL97" s="154"/>
+      <c r="AM97" s="154"/>
+      <c r="AN97" s="154"/>
+      <c r="AO97" s="154"/>
+      <c r="AP97" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="168"/>
+      <c r="C98" s="168"/>
+      <c r="D98" s="233" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="168"/>
+      <c r="F98" s="168"/>
+      <c r="G98" s="168"/>
+      <c r="H98" s="168"/>
+      <c r="I98" s="168"/>
+      <c r="J98" s="168"/>
+      <c r="K98" s="168"/>
+      <c r="L98" s="168"/>
+      <c r="M98" s="168"/>
+      <c r="N98" s="168"/>
+      <c r="O98" s="168"/>
+      <c r="P98" s="168"/>
+      <c r="Q98" s="168"/>
+      <c r="R98" s="168"/>
+      <c r="S98" s="168"/>
+      <c r="T98" s="168"/>
+      <c r="U98" s="168"/>
+      <c r="V98" s="168"/>
+      <c r="W98" s="168"/>
+      <c r="X98" s="168"/>
+      <c r="Y98" s="168"/>
+      <c r="Z98" s="168"/>
+      <c r="AA98" s="168"/>
+      <c r="AB98" s="168"/>
+      <c r="AC98" s="168"/>
+      <c r="AD98" s="168"/>
+      <c r="AE98" s="168"/>
+      <c r="AF98" s="168"/>
+      <c r="AG98" s="168"/>
+      <c r="AH98" s="168"/>
+      <c r="AI98" s="168"/>
+      <c r="AJ98" s="168"/>
+      <c r="AK98" s="168"/>
+      <c r="AL98" s="168"/>
+      <c r="AM98" s="168"/>
+      <c r="AN98" s="168"/>
+      <c r="AO98" s="168"/>
+      <c r="AP98" s="168" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="158"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="240" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="158"/>
+      <c r="L99" s="158"/>
+      <c r="M99" s="158"/>
+      <c r="N99" s="158"/>
+      <c r="O99" s="158"/>
+      <c r="P99" s="158"/>
+      <c r="Q99" s="158"/>
+      <c r="R99" s="158"/>
+      <c r="S99" s="158"/>
+      <c r="T99" s="158"/>
+      <c r="U99" s="158"/>
+      <c r="V99" s="158"/>
+      <c r="W99" s="158"/>
+      <c r="X99" s="158"/>
+      <c r="Y99" s="158"/>
+      <c r="Z99" s="158"/>
+      <c r="AA99" s="158"/>
+      <c r="AB99" s="158"/>
+      <c r="AC99" s="158"/>
+      <c r="AD99" s="158"/>
+      <c r="AE99" s="158"/>
+      <c r="AF99" s="158"/>
+      <c r="AG99" s="158"/>
+      <c r="AH99" s="158"/>
+      <c r="AI99" s="158"/>
+      <c r="AJ99" s="158"/>
+      <c r="AK99" s="158"/>
+      <c r="AL99" s="158"/>
+      <c r="AM99" s="158"/>
+      <c r="AN99" s="158"/>
+      <c r="AO99" s="158"/>
+      <c r="AP99" s="158" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="162"/>
+      <c r="C100" s="162"/>
+      <c r="D100" s="244" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="162"/>
+      <c r="F100" s="162"/>
+      <c r="G100" s="162"/>
+      <c r="H100" s="162"/>
+      <c r="I100" s="162"/>
+      <c r="J100" s="162"/>
+      <c r="K100" s="162"/>
+      <c r="L100" s="162"/>
+      <c r="M100" s="162"/>
+      <c r="N100" s="162"/>
+      <c r="O100" s="162"/>
+      <c r="P100" s="162"/>
+      <c r="Q100" s="162"/>
+      <c r="R100" s="162"/>
+      <c r="S100" s="162"/>
+      <c r="T100" s="162"/>
+      <c r="U100" s="162"/>
+      <c r="V100" s="162"/>
+      <c r="W100" s="162"/>
+      <c r="X100" s="162"/>
+      <c r="Y100" s="162"/>
+      <c r="Z100" s="162"/>
+      <c r="AA100" s="162"/>
+      <c r="AB100" s="162"/>
+      <c r="AC100" s="162"/>
+      <c r="AD100" s="162"/>
+      <c r="AE100" s="162"/>
+      <c r="AF100" s="162"/>
+      <c r="AG100" s="162"/>
+      <c r="AH100" s="162"/>
+      <c r="AI100" s="162"/>
+      <c r="AJ100" s="162"/>
+      <c r="AK100" s="162"/>
+      <c r="AL100" s="162"/>
+      <c r="AM100" s="162"/>
+      <c r="AN100" s="162"/>
+      <c r="AO100" s="162"/>
+      <c r="AP100" s="162" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" ht="25" x14ac:dyDescent="0.2">
+      <c r="A101" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="245" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="109"/>
+      <c r="F101" s="109"/>
+      <c r="G101" s="109"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="109"/>
+      <c r="J101" s="109"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="109"/>
+      <c r="M101" s="109"/>
+      <c r="N101" s="109"/>
+      <c r="O101" s="109"/>
+      <c r="P101" s="109"/>
+      <c r="Q101" s="109"/>
+      <c r="R101" s="109"/>
+      <c r="S101" s="109"/>
+      <c r="T101" s="109"/>
+      <c r="U101" s="109"/>
+      <c r="V101" s="109"/>
+      <c r="W101" s="109"/>
+      <c r="X101" s="109"/>
+      <c r="Y101" s="109"/>
+      <c r="Z101" s="109"/>
+      <c r="AA101" s="109"/>
+      <c r="AB101" s="109"/>
+      <c r="AC101" s="109"/>
+      <c r="AD101" s="109"/>
+      <c r="AE101" s="109"/>
+      <c r="AF101" s="109"/>
+      <c r="AG101" s="109"/>
+      <c r="AH101" s="109"/>
+      <c r="AI101" s="109"/>
+      <c r="AJ101" s="109"/>
+      <c r="AK101" s="109"/>
+      <c r="AL101" s="109"/>
+      <c r="AM101" s="109"/>
+      <c r="AN101" s="109"/>
+      <c r="AO101" s="109"/>
+      <c r="AP101" s="109" t="str">
+        <f t="shared" si="1"/>
+        <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
+      </c>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="101"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="101"/>
+      <c r="AN112" s="101"/>
+      <c r="AO112" s="101"/>
+    </row>
+    <row r="113" spans="4:41" x14ac:dyDescent="0.2">
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="101"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="101"/>
+      <c r="AN113" s="101"/>
+      <c r="AO113" s="101"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/misc/利用サンプル.xlsx
+++ b/misc/利用サンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9A879-900A-4830-91B7-B9AA78F5E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF9089-29CC-44CE-B8D7-12C02D10911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{C992BD33-D426-4E71-9ECD-4632F8E504BE}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="241" x14ac:knownFonts="1">
+  <fonts count="359" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2484,6 +2484,897 @@
       <color theme="1"/>
       <name val="Bzなろうゴシック100"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="23.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="33"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="41"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="82"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="82"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="41"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="33"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="27.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="54"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="81"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="86"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="21.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="28.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="34"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="42.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="57"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="56"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="46"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22.5"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="88"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="59"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="44"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="29.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19.5"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="BzなろうPゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="64"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック20"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="44"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック30"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.5"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.5"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうMゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="50"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック40"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック80"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック50"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック100"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="33"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック60"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28.5"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック70"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Bzなろうゴシック90"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="96"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="27.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="38"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="64"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="66"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="33"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="39.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="49.5"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="99"/>
+      <color theme="1"/>
+      <name val="BzなろうP明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="62"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="31"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="42"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="15.5"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="52"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="42"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="35"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="23.5"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="60"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝40"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝20"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝30"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="29"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝80"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BzなろうM明朝90"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝60"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝50"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝100"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="34"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝70"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26.5"/>
+      <color theme="1"/>
+      <name val="Bzなろう明朝90"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2521,7 +3412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3270,6 +4161,360 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3628,7 +4873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B7EE9-DD20-4F11-8F0B-71B12F5A6F01}">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4256,46 +5501,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95882C78-3077-4C14-9840-72AC7869639C}">
-  <dimension ref="A1:CI113"/>
+  <dimension ref="A1:CH113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ67" sqref="BJ67"/>
+      <selection pane="bottomRight" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.9375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.41015625" customWidth="1"/>
-    <col min="4" max="4" width="17.64453125" customWidth="1"/>
-    <col min="42" max="42" width="17.64453125" customWidth="1"/>
+    <col min="1" max="1" width="32.9375" customWidth="1"/>
+    <col min="3" max="3" width="17.64453125" customWidth="1"/>
+    <col min="41" max="41" width="17.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AO1" t="s">
         <v>128</v>
       </c>
-      <c r="CI1" s="249" t="str" cm="1">
-        <f t="array" aca="1" ref="CI1" ca="1">_xlfn.TEXTJOIN("",,CHAR(ROW(INDIRECT("32:126"))))</f>
+      <c r="CH1" s="249" t="str" cm="1">
+        <f t="array" aca="1" ref="CH1" ca="1">_xlfn.TEXTJOIN("",,CHAR(ROW(INDIRECT("32:126"))))</f>
         <v xml:space="preserve"> !"#$%&amp;'()*+,-./0123456789:;&lt;=&gt;?@ABCDEFGHIJKLMNOPQRSTUVWXYZ[\]^_`abcdefghijklmnopqrstuvwxyz{|}~</v>
       </c>
     </row>
-    <row r="2" spans="1:87" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A2" s="212" t="s">
+    <row r="2" spans="1:86" s="213" customFormat="1" ht="92.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="258" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212" t="s">
+      <c r="C2" s="258" t="s">
         <v>125</v>
       </c>
+      <c r="D2" s="212"/>
       <c r="E2" s="212"/>
       <c r="F2" s="212"/>
       <c r="G2" s="212"/>
@@ -4332,21 +5577,20 @@
       <c r="AL2" s="212"/>
       <c r="AM2" s="212"/>
       <c r="AN2" s="212"/>
-      <c r="AO2" s="212"/>
-      <c r="AP2" s="212" t="str">
-        <f>DBCS(D2)&amp;"＼"</f>
+      <c r="AO2" s="212" t="str">
+        <f>DBCS(C2)&amp;"＼"</f>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="3" spans="1:87" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="207" t="s">
+    <row r="3" spans="1:86" s="208" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A3" s="257" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207" t="s">
+      <c r="C3" s="257" t="s">
         <v>125</v>
       </c>
+      <c r="D3" s="207"/>
       <c r="E3" s="207"/>
       <c r="F3" s="207"/>
       <c r="G3" s="207"/>
@@ -4383,21 +5627,20 @@
       <c r="AL3" s="207"/>
       <c r="AM3" s="207"/>
       <c r="AN3" s="207"/>
-      <c r="AO3" s="207"/>
-      <c r="AP3" s="207" t="str">
-        <f t="shared" ref="AP3:AP66" si="0">DBCS(D3)&amp;"＼"</f>
+      <c r="AO3" s="207" t="str">
+        <f t="shared" ref="AO3:AO66" si="0">DBCS(C3)&amp;"＼"</f>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="4" spans="1:87" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="202" t="s">
+    <row r="4" spans="1:86" s="203" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="256" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202" t="s">
+      <c r="C4" s="256" t="s">
         <v>125</v>
       </c>
+      <c r="D4" s="202"/>
       <c r="E4" s="202"/>
       <c r="F4" s="202"/>
       <c r="G4" s="202"/>
@@ -4434,21 +5677,20 @@
       <c r="AL4" s="202"/>
       <c r="AM4" s="202"/>
       <c r="AN4" s="202"/>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="202" t="str">
+      <c r="AO4" s="202" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="5" spans="1:87" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="197" t="s">
+    <row r="5" spans="1:86" s="198" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="255" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197" t="s">
+      <c r="C5" s="255" t="s">
         <v>125</v>
       </c>
+      <c r="D5" s="197"/>
       <c r="E5" s="197"/>
       <c r="F5" s="197"/>
       <c r="G5" s="197"/>
@@ -4485,21 +5727,20 @@
       <c r="AL5" s="197"/>
       <c r="AM5" s="197"/>
       <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197" t="str">
+      <c r="AO5" s="197" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="6" spans="1:87" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" s="164" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="193" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193" t="s">
+      <c r="C6" s="254" t="s">
         <v>125</v>
       </c>
+      <c r="D6" s="193"/>
       <c r="E6" s="193"/>
       <c r="F6" s="193"/>
       <c r="G6" s="193"/>
@@ -4536,21 +5777,20 @@
       <c r="AL6" s="193"/>
       <c r="AM6" s="193"/>
       <c r="AN6" s="193"/>
-      <c r="AO6" s="193"/>
-      <c r="AP6" s="193" t="str">
+      <c r="AO6" s="193" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="7" spans="1:87" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="188" t="s">
+    <row r="7" spans="1:86" s="189" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A7" s="253" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="253" t="s">
         <v>125</v>
       </c>
+      <c r="D7" s="188"/>
       <c r="E7" s="188"/>
       <c r="F7" s="188"/>
       <c r="G7" s="188"/>
@@ -4587,21 +5827,20 @@
       <c r="AL7" s="188"/>
       <c r="AM7" s="188"/>
       <c r="AN7" s="188"/>
-      <c r="AO7" s="188"/>
-      <c r="AP7" s="188" t="str">
+      <c r="AO7" s="188" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="8" spans="1:87" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
-      <c r="A8" s="187" t="s">
+    <row r="8" spans="1:86" s="184" customFormat="1" ht="23.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="252" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187" t="s">
+      <c r="C8" s="252" t="s">
         <v>125</v>
       </c>
+      <c r="D8" s="187"/>
       <c r="E8" s="187"/>
       <c r="F8" s="187"/>
       <c r="G8" s="187"/>
@@ -4638,21 +5877,20 @@
       <c r="AL8" s="187"/>
       <c r="AM8" s="187"/>
       <c r="AN8" s="187"/>
-      <c r="AO8" s="187"/>
-      <c r="AP8" s="187" t="str">
+      <c r="AO8" s="187" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="9" spans="1:87" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="182" t="s">
+    <row r="9" spans="1:86" s="179" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="250" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182" t="s">
+      <c r="C9" s="250" t="s">
         <v>125</v>
       </c>
+      <c r="D9" s="182"/>
       <c r="E9" s="182"/>
       <c r="F9" s="182"/>
       <c r="G9" s="182"/>
@@ -4689,21 +5927,20 @@
       <c r="AL9" s="182"/>
       <c r="AM9" s="182"/>
       <c r="AN9" s="182"/>
-      <c r="AO9" s="182"/>
-      <c r="AP9" s="182" t="str">
+      <c r="AO9" s="250" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="10" spans="1:87" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" s="121" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="174" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174" t="s">
+      <c r="C10" s="251" t="s">
         <v>125</v>
       </c>
+      <c r="D10" s="174"/>
       <c r="E10" s="174"/>
       <c r="F10" s="174"/>
       <c r="G10" s="174"/>
@@ -4740,21 +5977,20 @@
       <c r="AL10" s="174"/>
       <c r="AM10" s="174"/>
       <c r="AN10" s="174"/>
-      <c r="AO10" s="174"/>
-      <c r="AP10" s="174" t="str">
+      <c r="AO10" s="174" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="11" spans="1:87" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+    <row r="11" spans="1:86" s="134" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A11" s="284" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133" t="s">
+      <c r="C11" s="133" t="s">
         <v>125</v>
       </c>
+      <c r="D11" s="133"/>
       <c r="E11" s="133"/>
       <c r="F11" s="133"/>
       <c r="G11" s="133"/>
@@ -4791,21 +6027,20 @@
       <c r="AL11" s="133"/>
       <c r="AM11" s="133"/>
       <c r="AN11" s="133"/>
-      <c r="AO11" s="133"/>
-      <c r="AP11" s="133" t="str">
+      <c r="AO11" s="133" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="12" spans="1:87" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
       <c r="A12" s="115" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115" t="s">
+      <c r="C12" s="115" t="s">
         <v>125</v>
       </c>
+      <c r="D12" s="115"/>
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
       <c r="G12" s="115"/>
@@ -4842,21 +6077,20 @@
       <c r="AL12" s="115"/>
       <c r="AM12" s="115"/>
       <c r="AN12" s="115"/>
-      <c r="AO12" s="115"/>
-      <c r="AP12" s="115" t="str">
+      <c r="AO12" s="115" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="13" spans="1:87" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
       <c r="A13" s="167" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167" t="s">
+      <c r="C13" s="167" t="s">
         <v>125</v>
       </c>
+      <c r="D13" s="167"/>
       <c r="E13" s="167"/>
       <c r="F13" s="167"/>
       <c r="G13" s="167"/>
@@ -4893,21 +6127,20 @@
       <c r="AL13" s="167"/>
       <c r="AM13" s="167"/>
       <c r="AN13" s="167"/>
-      <c r="AO13" s="167"/>
-      <c r="AP13" s="167" t="str">
+      <c r="AO13" s="167" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="14" spans="1:87" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
       <c r="A14" s="117" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117" t="s">
+      <c r="C14" s="117" t="s">
         <v>125</v>
       </c>
+      <c r="D14" s="117"/>
       <c r="E14" s="117"/>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -4944,21 +6177,20 @@
       <c r="AL14" s="117"/>
       <c r="AM14" s="117"/>
       <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117" t="str">
+      <c r="AO14" s="117" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="15" spans="1:87" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
       <c r="A15" s="128" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128" t="s">
+      <c r="C15" s="128" t="s">
         <v>125</v>
       </c>
+      <c r="D15" s="128"/>
       <c r="E15" s="128"/>
       <c r="F15" s="128"/>
       <c r="G15" s="128"/>
@@ -4995,21 +6227,20 @@
       <c r="AL15" s="128"/>
       <c r="AM15" s="128"/>
       <c r="AN15" s="128"/>
-      <c r="AO15" s="128"/>
-      <c r="AP15" s="128" t="str">
+      <c r="AO15" s="128" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="16" spans="1:87" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
       <c r="A16" s="122" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122" t="s">
+      <c r="C16" s="122" t="s">
         <v>125</v>
       </c>
+      <c r="D16" s="122"/>
       <c r="E16" s="122"/>
       <c r="F16" s="122"/>
       <c r="G16" s="122"/>
@@ -5046,21 +6277,20 @@
       <c r="AL16" s="122"/>
       <c r="AM16" s="122"/>
       <c r="AN16" s="122"/>
-      <c r="AO16" s="122"/>
-      <c r="AP16" s="122" t="str">
+      <c r="AO16" s="122" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="126" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126" t="s">
+      <c r="C17" s="126" t="s">
         <v>125</v>
       </c>
+      <c r="D17" s="126"/>
       <c r="E17" s="126"/>
       <c r="F17" s="126"/>
       <c r="G17" s="126"/>
@@ -5097,21 +6327,20 @@
       <c r="AL17" s="126"/>
       <c r="AM17" s="126"/>
       <c r="AN17" s="126"/>
-      <c r="AO17" s="126"/>
-      <c r="AP17" s="126" t="str">
+      <c r="AO17" s="126" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="131" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131" t="s">
+      <c r="C18" s="131" t="s">
         <v>125</v>
       </c>
+      <c r="D18" s="131"/>
       <c r="E18" s="131"/>
       <c r="F18" s="131"/>
       <c r="G18" s="131"/>
@@ -5148,21 +6377,20 @@
       <c r="AL18" s="131"/>
       <c r="AM18" s="131"/>
       <c r="AN18" s="131"/>
-      <c r="AO18" s="131"/>
-      <c r="AP18" s="131" t="str">
+      <c r="AO18" s="131" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A19" s="102" t="s">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" s="285" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102" t="s">
+      <c r="C19" s="102" t="s">
         <v>125</v>
       </c>
+      <c r="D19" s="102"/>
       <c r="E19" s="102"/>
       <c r="F19" s="102"/>
       <c r="G19" s="102"/>
@@ -5199,21 +6427,20 @@
       <c r="AL19" s="102"/>
       <c r="AM19" s="102"/>
       <c r="AN19" s="102"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102" t="str">
+      <c r="AO19" s="102" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A20" s="220" t="s">
+    <row r="20" spans="1:41" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A20" s="286" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="220"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221" t="s">
+      <c r="C20" s="221" t="s">
         <v>125</v>
       </c>
+      <c r="D20" s="170"/>
       <c r="E20" s="170"/>
       <c r="F20" s="170"/>
       <c r="G20" s="170"/>
@@ -5250,21 +6477,20 @@
       <c r="AL20" s="170"/>
       <c r="AM20" s="170"/>
       <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170" t="str">
+      <c r="AO20" s="170" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:41" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="287" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="228" t="s">
+      <c r="C21" s="228" t="s">
         <v>125</v>
       </c>
+      <c r="D21" s="110"/>
       <c r="E21" s="110"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110"/>
@@ -5301,21 +6527,20 @@
       <c r="AL21" s="110"/>
       <c r="AM21" s="110"/>
       <c r="AN21" s="110"/>
-      <c r="AO21" s="110"/>
-      <c r="AP21" s="110" t="str">
+      <c r="AO21" s="110" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A22" s="151" t="s">
+    <row r="22" spans="1:41" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A22" s="288" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="232" t="s">
+      <c r="C22" s="232" t="s">
         <v>125</v>
       </c>
+      <c r="D22" s="151"/>
       <c r="E22" s="151"/>
       <c r="F22" s="151"/>
       <c r="G22" s="151"/>
@@ -5352,21 +6577,20 @@
       <c r="AL22" s="151"/>
       <c r="AM22" s="151"/>
       <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151" t="str">
+      <c r="AO22" s="151" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:41" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="289" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="236" t="s">
+      <c r="C23" s="236" t="s">
         <v>125</v>
       </c>
+      <c r="D23" s="56"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
@@ -5403,21 +6627,20 @@
       <c r="AL23" s="56"/>
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56" t="str">
+      <c r="AO23" s="56" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="156" t="s">
+    <row r="24" spans="1:41" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="290" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="237" t="s">
+      <c r="C24" s="237" t="s">
         <v>125</v>
       </c>
+      <c r="D24" s="156"/>
       <c r="E24" s="156"/>
       <c r="F24" s="156"/>
       <c r="G24" s="156"/>
@@ -5454,21 +6677,20 @@
       <c r="AL24" s="156"/>
       <c r="AM24" s="156"/>
       <c r="AN24" s="156"/>
-      <c r="AO24" s="156"/>
-      <c r="AP24" s="156" t="str">
+      <c r="AO24" s="156" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="159" t="s">
+    <row r="25" spans="1:41" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="291" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="241" t="s">
+      <c r="C25" s="241" t="s">
         <v>125</v>
       </c>
+      <c r="D25" s="159"/>
       <c r="E25" s="159"/>
       <c r="F25" s="159"/>
       <c r="G25" s="159"/>
@@ -5505,21 +6727,20 @@
       <c r="AL25" s="159"/>
       <c r="AM25" s="159"/>
       <c r="AN25" s="159"/>
-      <c r="AO25" s="159"/>
-      <c r="AP25" s="159" t="str">
+      <c r="AO25" s="159" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="25" x14ac:dyDescent="0.2">
-      <c r="A26" s="103" t="s">
+    <row r="26" spans="1:41" ht="25" x14ac:dyDescent="0.2">
+      <c r="A26" s="292" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="248" t="s">
+      <c r="C26" s="248" t="s">
         <v>125</v>
       </c>
+      <c r="D26" s="103"/>
       <c r="E26" s="103"/>
       <c r="F26" s="103"/>
       <c r="G26" s="103"/>
@@ -5556,21 +6777,20 @@
       <c r="AL26" s="103"/>
       <c r="AM26" s="103"/>
       <c r="AN26" s="103"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103" t="str">
+      <c r="AO26" s="103" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A27" s="214" t="s">
+    <row r="27" spans="1:41" s="213" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+      <c r="A27" s="320" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214" t="s">
+      <c r="C27" s="275" t="s">
         <v>125</v>
       </c>
+      <c r="D27" s="214"/>
       <c r="E27" s="214"/>
       <c r="F27" s="214"/>
       <c r="G27" s="214"/>
@@ -5607,21 +6827,20 @@
       <c r="AL27" s="214"/>
       <c r="AM27" s="214"/>
       <c r="AN27" s="214"/>
-      <c r="AO27" s="214"/>
-      <c r="AP27" s="214" t="str">
+      <c r="AO27" s="214" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" s="209" t="s">
+    <row r="28" spans="1:41" s="208" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A28" s="326" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209" t="s">
+      <c r="C28" s="283" t="s">
         <v>125</v>
       </c>
+      <c r="D28" s="209"/>
       <c r="E28" s="209"/>
       <c r="F28" s="209"/>
       <c r="G28" s="209"/>
@@ -5658,21 +6877,20 @@
       <c r="AL28" s="209"/>
       <c r="AM28" s="209"/>
       <c r="AN28" s="209"/>
-      <c r="AO28" s="209"/>
-      <c r="AP28" s="209" t="str">
+      <c r="AO28" s="209" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="204" t="s">
+    <row r="29" spans="1:41" s="203" customFormat="1" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="319" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204" t="s">
+      <c r="C29" s="282" t="s">
         <v>125</v>
       </c>
+      <c r="D29" s="204"/>
       <c r="E29" s="204"/>
       <c r="F29" s="204"/>
       <c r="G29" s="204"/>
@@ -5709,21 +6927,20 @@
       <c r="AL29" s="204"/>
       <c r="AM29" s="204"/>
       <c r="AN29" s="204"/>
-      <c r="AO29" s="204"/>
-      <c r="AP29" s="204" t="str">
+      <c r="AO29" s="204" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="30" spans="1:42" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="199" t="s">
+    <row r="30" spans="1:41" s="198" customFormat="1" ht="43" x14ac:dyDescent="0.2">
+      <c r="A30" s="325" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199" t="s">
+      <c r="C30" s="281" t="s">
         <v>125</v>
       </c>
+      <c r="D30" s="199"/>
       <c r="E30" s="199"/>
       <c r="F30" s="199"/>
       <c r="G30" s="199"/>
@@ -5760,21 +6977,20 @@
       <c r="AL30" s="199"/>
       <c r="AM30" s="199"/>
       <c r="AN30" s="199"/>
-      <c r="AO30" s="199"/>
-      <c r="AP30" s="199" t="str">
+      <c r="AO30" s="199" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="31" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="194" t="s">
+    <row r="31" spans="1:41" s="164" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="321" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194" t="s">
+      <c r="C31" s="280" t="s">
         <v>125</v>
       </c>
+      <c r="D31" s="194"/>
       <c r="E31" s="194"/>
       <c r="F31" s="194"/>
       <c r="G31" s="194"/>
@@ -5811,21 +7027,20 @@
       <c r="AL31" s="194"/>
       <c r="AM31" s="194"/>
       <c r="AN31" s="194"/>
-      <c r="AO31" s="194"/>
-      <c r="AP31" s="194" t="str">
+      <c r="AO31" s="194" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="190" t="s">
+    <row r="32" spans="1:41" s="189" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="324" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190" t="s">
+      <c r="C32" s="279" t="s">
         <v>125</v>
       </c>
+      <c r="D32" s="190"/>
       <c r="E32" s="190"/>
       <c r="F32" s="190"/>
       <c r="G32" s="190"/>
@@ -5862,21 +7077,20 @@
       <c r="AL32" s="190"/>
       <c r="AM32" s="190"/>
       <c r="AN32" s="190"/>
-      <c r="AO32" s="190"/>
-      <c r="AP32" s="190" t="str">
+      <c r="AO32" s="190" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
-      <c r="A33" s="186" t="s">
+    <row r="33" spans="1:41" s="184" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="318" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186" t="s">
+      <c r="C33" s="278" t="s">
         <v>125</v>
       </c>
+      <c r="D33" s="186"/>
       <c r="E33" s="186"/>
       <c r="F33" s="186"/>
       <c r="G33" s="186"/>
@@ -5913,21 +7127,20 @@
       <c r="AL33" s="186"/>
       <c r="AM33" s="186"/>
       <c r="AN33" s="186"/>
-      <c r="AO33" s="186"/>
-      <c r="AP33" s="186" t="str">
+      <c r="AO33" s="186" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="181" t="s">
+    <row r="34" spans="1:41" s="179" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A34" s="323" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181" t="s">
+      <c r="C34" s="277" t="s">
         <v>125</v>
       </c>
+      <c r="D34" s="181"/>
       <c r="E34" s="181"/>
       <c r="F34" s="181"/>
       <c r="G34" s="181"/>
@@ -5964,21 +7177,20 @@
       <c r="AL34" s="181"/>
       <c r="AM34" s="181"/>
       <c r="AN34" s="181"/>
-      <c r="AO34" s="181"/>
-      <c r="AP34" s="181" t="str">
+      <c r="AO34" s="259" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="175" t="s">
+    <row r="35" spans="1:41" s="121" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A35" s="322" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175" t="s">
+      <c r="C35" s="276" t="s">
         <v>125</v>
       </c>
+      <c r="D35" s="175"/>
       <c r="E35" s="175"/>
       <c r="F35" s="175"/>
       <c r="G35" s="175"/>
@@ -6015,21 +7227,20 @@
       <c r="AL35" s="175"/>
       <c r="AM35" s="175"/>
       <c r="AN35" s="175"/>
-      <c r="AO35" s="175"/>
-      <c r="AP35" s="175" t="str">
+      <c r="AO35" s="175" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A36" s="135" t="s">
+    <row r="36" spans="1:41" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A36" s="336" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135" t="s">
+      <c r="C36" s="135" t="s">
         <v>125</v>
       </c>
+      <c r="D36" s="135"/>
       <c r="E36" s="135"/>
       <c r="F36" s="135"/>
       <c r="G36" s="135"/>
@@ -6066,21 +7277,20 @@
       <c r="AL36" s="135"/>
       <c r="AM36" s="135"/>
       <c r="AN36" s="135"/>
-      <c r="AO36" s="135"/>
-      <c r="AP36" s="135" t="str">
+      <c r="AO36" s="135" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A37" s="114" t="s">
+    <row r="37" spans="1:41" s="111" customFormat="1" ht="47.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="338" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114" t="s">
+      <c r="C37" s="114" t="s">
         <v>125</v>
       </c>
+      <c r="D37" s="114"/>
       <c r="E37" s="114"/>
       <c r="F37" s="114"/>
       <c r="G37" s="114"/>
@@ -6117,21 +7327,20 @@
       <c r="AL37" s="114"/>
       <c r="AM37" s="114"/>
       <c r="AN37" s="114"/>
-      <c r="AO37" s="114"/>
-      <c r="AP37" s="114" t="str">
+      <c r="AO37" s="114" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="171" t="s">
+    <row r="38" spans="1:41" s="164" customFormat="1" ht="35" x14ac:dyDescent="0.2">
+      <c r="A38" s="337" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171" t="s">
+      <c r="C38" s="171" t="s">
         <v>125</v>
       </c>
+      <c r="D38" s="171"/>
       <c r="E38" s="171"/>
       <c r="F38" s="171"/>
       <c r="G38" s="171"/>
@@ -6168,21 +7377,20 @@
       <c r="AL38" s="171"/>
       <c r="AM38" s="171"/>
       <c r="AN38" s="171"/>
-      <c r="AO38" s="171"/>
-      <c r="AP38" s="171" t="str">
+      <c r="AO38" s="171" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="39" spans="1:42" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
-      <c r="A39" s="118" t="s">
+    <row r="39" spans="1:41" s="116" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="340" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118" t="s">
+      <c r="C39" s="118" t="s">
         <v>125</v>
       </c>
+      <c r="D39" s="118"/>
       <c r="E39" s="118"/>
       <c r="F39" s="118"/>
       <c r="G39" s="118"/>
@@ -6219,21 +7427,20 @@
       <c r="AL39" s="118"/>
       <c r="AM39" s="118"/>
       <c r="AN39" s="118"/>
-      <c r="AO39" s="118"/>
-      <c r="AP39" s="118" t="str">
+      <c r="AO39" s="118" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="40" spans="1:42" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="138" t="s">
+    <row r="40" spans="1:41" s="129" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A40" s="339" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138" t="s">
+      <c r="C40" s="138" t="s">
         <v>125</v>
       </c>
+      <c r="D40" s="138"/>
       <c r="E40" s="138"/>
       <c r="F40" s="138"/>
       <c r="G40" s="138"/>
@@ -6270,21 +7477,20 @@
       <c r="AL40" s="138"/>
       <c r="AM40" s="138"/>
       <c r="AN40" s="138"/>
-      <c r="AO40" s="138"/>
-      <c r="AP40" s="138" t="str">
+      <c r="AO40" s="138" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="41" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="123" t="s">
+    <row r="41" spans="1:41" s="121" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="344" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123" t="s">
+      <c r="C41" s="123" t="s">
         <v>125</v>
       </c>
+      <c r="D41" s="123"/>
       <c r="E41" s="123"/>
       <c r="F41" s="123"/>
       <c r="G41" s="123"/>
@@ -6321,21 +7527,20 @@
       <c r="AL41" s="123"/>
       <c r="AM41" s="123"/>
       <c r="AN41" s="123"/>
-      <c r="AO41" s="123"/>
-      <c r="AP41" s="123" t="str">
+      <c r="AO41" s="123" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="144" t="s">
+    <row r="42" spans="1:41" s="127" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="343" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144" t="s">
+      <c r="C42" s="144" t="s">
         <v>125</v>
       </c>
+      <c r="D42" s="144"/>
       <c r="E42" s="144"/>
       <c r="F42" s="144"/>
       <c r="G42" s="144"/>
@@ -6372,21 +7577,20 @@
       <c r="AL42" s="144"/>
       <c r="AM42" s="144"/>
       <c r="AN42" s="144"/>
-      <c r="AO42" s="144"/>
-      <c r="AP42" s="144" t="str">
+      <c r="AO42" s="144" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="43" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="147" t="s">
+    <row r="43" spans="1:41" s="132" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="342" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147" t="s">
+      <c r="C43" s="147" t="s">
         <v>125</v>
       </c>
+      <c r="D43" s="147"/>
       <c r="E43" s="147"/>
       <c r="F43" s="147"/>
       <c r="G43" s="147"/>
@@ -6423,21 +7627,20 @@
       <c r="AL43" s="147"/>
       <c r="AM43" s="147"/>
       <c r="AN43" s="147"/>
-      <c r="AO43" s="147"/>
-      <c r="AP43" s="147" t="str">
+      <c r="AO43" s="147" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A44" s="104" t="s">
+    <row r="44" spans="1:41" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="341" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104" t="s">
+      <c r="C44" s="104" t="s">
         <v>125</v>
       </c>
+      <c r="D44" s="104"/>
       <c r="E44" s="104"/>
       <c r="F44" s="104"/>
       <c r="G44" s="104"/>
@@ -6474,21 +7677,20 @@
       <c r="AL44" s="104"/>
       <c r="AM44" s="104"/>
       <c r="AN44" s="104"/>
-      <c r="AO44" s="104"/>
-      <c r="AP44" s="104" t="str">
+      <c r="AO44" s="104" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A45" s="219" t="s">
+    <row r="45" spans="1:41" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A45" s="345" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="222" t="s">
+      <c r="C45" s="222" t="s">
         <v>125</v>
       </c>
+      <c r="D45" s="166"/>
       <c r="E45" s="166"/>
       <c r="F45" s="166"/>
       <c r="G45" s="166"/>
@@ -6525,21 +7727,20 @@
       <c r="AL45" s="166"/>
       <c r="AM45" s="166"/>
       <c r="AN45" s="166"/>
-      <c r="AO45" s="166"/>
-      <c r="AP45" s="166" t="str">
+      <c r="AO45" s="166" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="46" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="150" t="s">
+    <row r="46" spans="1:41" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="347" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="150"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="227" t="s">
+      <c r="C46" s="227" t="s">
         <v>125</v>
       </c>
+      <c r="D46" s="150"/>
       <c r="E46" s="150"/>
       <c r="F46" s="150"/>
       <c r="G46" s="150"/>
@@ -6576,21 +7777,20 @@
       <c r="AL46" s="150"/>
       <c r="AM46" s="150"/>
       <c r="AN46" s="150"/>
-      <c r="AO46" s="150"/>
-      <c r="AP46" s="150" t="str">
+      <c r="AO46" s="150" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="47" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A47" s="152" t="s">
+    <row r="47" spans="1:41" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A47" s="348" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="231" t="s">
+      <c r="C47" s="231" t="s">
         <v>125</v>
       </c>
+      <c r="D47" s="152"/>
       <c r="E47" s="152"/>
       <c r="F47" s="152"/>
       <c r="G47" s="152"/>
@@ -6627,21 +7827,20 @@
       <c r="AL47" s="152"/>
       <c r="AM47" s="152"/>
       <c r="AN47" s="152"/>
-      <c r="AO47" s="152"/>
-      <c r="AP47" s="152" t="str">
+      <c r="AO47" s="152" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="48" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="169" t="s">
+    <row r="48" spans="1:41" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="349" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="235" t="s">
+      <c r="C48" s="235" t="s">
         <v>125</v>
       </c>
+      <c r="D48" s="169"/>
       <c r="E48" s="169"/>
       <c r="F48" s="169"/>
       <c r="G48" s="169"/>
@@ -6678,21 +7877,20 @@
       <c r="AL48" s="169"/>
       <c r="AM48" s="169"/>
       <c r="AN48" s="169"/>
-      <c r="AO48" s="169"/>
-      <c r="AP48" s="169" t="str">
+      <c r="AO48" s="169" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="49" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="155" t="s">
+    <row r="49" spans="1:41" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="346" t="s">
         <v>72</v>
       </c>
       <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="238" t="s">
+      <c r="C49" s="238" t="s">
         <v>125</v>
       </c>
+      <c r="D49" s="155"/>
       <c r="E49" s="155"/>
       <c r="F49" s="155"/>
       <c r="G49" s="155"/>
@@ -6729,21 +7927,20 @@
       <c r="AL49" s="155"/>
       <c r="AM49" s="155"/>
       <c r="AN49" s="155"/>
-      <c r="AO49" s="155"/>
-      <c r="AP49" s="155" t="str">
+      <c r="AO49" s="155" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="50" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="160" t="s">
+    <row r="50" spans="1:41" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="350" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="160"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="242" t="s">
+      <c r="C50" s="242" t="s">
         <v>125</v>
       </c>
+      <c r="D50" s="160"/>
       <c r="E50" s="160"/>
       <c r="F50" s="160"/>
       <c r="G50" s="160"/>
@@ -6780,21 +7977,20 @@
       <c r="AL50" s="160"/>
       <c r="AM50" s="160"/>
       <c r="AN50" s="160"/>
-      <c r="AO50" s="160"/>
-      <c r="AP50" s="160" t="str">
+      <c r="AO50" s="160" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="25" x14ac:dyDescent="0.2">
-      <c r="A51" s="105" t="s">
+    <row r="51" spans="1:41" ht="25" x14ac:dyDescent="0.2">
+      <c r="A51" s="351" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="247" t="s">
+      <c r="C51" s="247" t="s">
         <v>125</v>
       </c>
+      <c r="D51" s="105"/>
       <c r="E51" s="105"/>
       <c r="F51" s="105"/>
       <c r="G51" s="105"/>
@@ -6831,21 +8027,20 @@
       <c r="AL51" s="105"/>
       <c r="AM51" s="105"/>
       <c r="AN51" s="105"/>
-      <c r="AO51" s="105"/>
-      <c r="AP51" s="105" t="str">
+      <c r="AO51" s="105" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="52" spans="1:42" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A52" s="215" t="s">
+    <row r="52" spans="1:41" s="213" customFormat="1" ht="99" x14ac:dyDescent="0.2">
+      <c r="A52" s="293" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="215"/>
-      <c r="C52" s="215"/>
-      <c r="D52" s="215" t="s">
+      <c r="C52" s="262" t="s">
         <v>125</v>
       </c>
+      <c r="D52" s="215"/>
       <c r="E52" s="215"/>
       <c r="F52" s="215"/>
       <c r="G52" s="215"/>
@@ -6882,21 +8077,20 @@
       <c r="AL52" s="215"/>
       <c r="AM52" s="215"/>
       <c r="AN52" s="215"/>
-      <c r="AO52" s="215"/>
-      <c r="AP52" s="215" t="str">
+      <c r="AO52" s="215" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="53" spans="1:42" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A53" s="210" t="s">
+    <row r="53" spans="1:41" s="208" customFormat="1" ht="66.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="294" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="210"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="210" t="s">
+      <c r="C53" s="263" t="s">
         <v>125</v>
       </c>
+      <c r="D53" s="210"/>
       <c r="E53" s="210"/>
       <c r="F53" s="210"/>
       <c r="G53" s="210"/>
@@ -6933,21 +8127,20 @@
       <c r="AL53" s="210"/>
       <c r="AM53" s="210"/>
       <c r="AN53" s="210"/>
-      <c r="AO53" s="210"/>
-      <c r="AP53" s="210" t="str">
+      <c r="AO53" s="210" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="54" spans="1:42" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="205" t="s">
+    <row r="54" spans="1:41" s="203" customFormat="1" ht="50" x14ac:dyDescent="0.2">
+      <c r="A54" s="295" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205" t="s">
+      <c r="C54" s="264" t="s">
         <v>125</v>
       </c>
+      <c r="D54" s="205"/>
       <c r="E54" s="205"/>
       <c r="F54" s="205"/>
       <c r="G54" s="205"/>
@@ -6984,21 +8177,20 @@
       <c r="AL54" s="205"/>
       <c r="AM54" s="205"/>
       <c r="AN54" s="205"/>
-      <c r="AO54" s="205"/>
-      <c r="AP54" s="205" t="str">
+      <c r="AO54" s="205" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="55" spans="1:42" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="200" t="s">
+    <row r="55" spans="1:41" s="198" customFormat="1" ht="39.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="298" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="200"/>
-      <c r="C55" s="200"/>
-      <c r="D55" s="200" t="s">
+      <c r="C55" s="265" t="s">
         <v>125</v>
       </c>
+      <c r="D55" s="200"/>
       <c r="E55" s="200"/>
       <c r="F55" s="200"/>
       <c r="G55" s="200"/>
@@ -7035,21 +8227,20 @@
       <c r="AL55" s="200"/>
       <c r="AM55" s="200"/>
       <c r="AN55" s="200"/>
-      <c r="AO55" s="200"/>
-      <c r="AP55" s="200" t="str">
+      <c r="AO55" s="200" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="56" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="195" t="s">
+    <row r="56" spans="1:41" s="164" customFormat="1" ht="33.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="297" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="195"/>
-      <c r="C56" s="195"/>
-      <c r="D56" s="195" t="s">
+      <c r="C56" s="266" t="s">
         <v>125</v>
       </c>
+      <c r="D56" s="195"/>
       <c r="E56" s="195"/>
       <c r="F56" s="195"/>
       <c r="G56" s="195"/>
@@ -7086,21 +8277,20 @@
       <c r="AL56" s="195"/>
       <c r="AM56" s="195"/>
       <c r="AN56" s="195"/>
-      <c r="AO56" s="195"/>
-      <c r="AP56" s="195" t="str">
+      <c r="AO56" s="195" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="57" spans="1:42" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="191" t="s">
+    <row r="57" spans="1:41" s="189" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="300" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="191"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="191" t="s">
+      <c r="C57" s="267" t="s">
         <v>125</v>
       </c>
+      <c r="D57" s="191"/>
       <c r="E57" s="191"/>
       <c r="F57" s="191"/>
       <c r="G57" s="191"/>
@@ -7137,21 +8327,20 @@
       <c r="AL57" s="191"/>
       <c r="AM57" s="191"/>
       <c r="AN57" s="191"/>
-      <c r="AO57" s="191"/>
-      <c r="AP57" s="191" t="str">
+      <c r="AO57" s="191" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="58" spans="1:42" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
-      <c r="A58" s="185" t="s">
+    <row r="58" spans="1:41" s="184" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A58" s="296" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="185"/>
-      <c r="C58" s="185"/>
-      <c r="D58" s="185" t="s">
+      <c r="C58" s="268" t="s">
         <v>125</v>
       </c>
+      <c r="D58" s="185"/>
       <c r="E58" s="185"/>
       <c r="F58" s="185"/>
       <c r="G58" s="185"/>
@@ -7188,21 +8377,20 @@
       <c r="AL58" s="185"/>
       <c r="AM58" s="185"/>
       <c r="AN58" s="185"/>
-      <c r="AO58" s="185"/>
-      <c r="AP58" s="185" t="str">
+      <c r="AO58" s="185" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="59" spans="1:42" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="180" t="s">
+    <row r="59" spans="1:41" s="179" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="299" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="180"/>
-      <c r="C59" s="180"/>
-      <c r="D59" s="180" t="s">
+      <c r="C59" s="260" t="s">
         <v>125</v>
       </c>
+      <c r="D59" s="180"/>
       <c r="E59" s="180"/>
       <c r="F59" s="180"/>
       <c r="G59" s="180"/>
@@ -7239,21 +8427,20 @@
       <c r="AL59" s="180"/>
       <c r="AM59" s="180"/>
       <c r="AN59" s="180"/>
-      <c r="AO59" s="180"/>
-      <c r="AP59" s="180" t="str">
+      <c r="AO59" s="260" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="60" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="176" t="s">
+    <row r="60" spans="1:41" s="121" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="269" t="s">
         <v>83</v>
       </c>
       <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176" t="s">
+      <c r="C60" s="270" t="s">
         <v>125</v>
       </c>
+      <c r="D60" s="176"/>
       <c r="E60" s="176"/>
       <c r="F60" s="176"/>
       <c r="G60" s="176"/>
@@ -7290,21 +8477,20 @@
       <c r="AL60" s="176"/>
       <c r="AM60" s="176"/>
       <c r="AN60" s="176"/>
-      <c r="AO60" s="176"/>
-      <c r="AP60" s="176" t="str">
+      <c r="AO60" s="176" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="61" spans="1:42" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A61" s="136" t="s">
+    <row r="61" spans="1:41" s="134" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A61" s="301" t="s">
         <v>84</v>
       </c>
       <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136" t="s">
+      <c r="C61" s="136" t="s">
         <v>125</v>
       </c>
+      <c r="D61" s="136"/>
       <c r="E61" s="136"/>
       <c r="F61" s="136"/>
       <c r="G61" s="136"/>
@@ -7341,21 +8527,20 @@
       <c r="AL61" s="136"/>
       <c r="AM61" s="136"/>
       <c r="AN61" s="136"/>
-      <c r="AO61" s="136"/>
-      <c r="AP61" s="136" t="str">
+      <c r="AO61" s="136" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="62" spans="1:42" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A62" s="113" t="s">
+    <row r="62" spans="1:41" s="111" customFormat="1" ht="50" x14ac:dyDescent="0.2">
+      <c r="A62" s="304" t="s">
         <v>85</v>
       </c>
       <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113" t="s">
+      <c r="C62" s="113" t="s">
         <v>125</v>
       </c>
+      <c r="D62" s="113"/>
       <c r="E62" s="113"/>
       <c r="F62" s="113"/>
       <c r="G62" s="113"/>
@@ -7392,21 +8577,20 @@
       <c r="AL62" s="113"/>
       <c r="AM62" s="113"/>
       <c r="AN62" s="113"/>
-      <c r="AO62" s="113"/>
-      <c r="AP62" s="113" t="str">
+      <c r="AO62" s="113" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="63" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="173" t="s">
+    <row r="63" spans="1:41" s="164" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="302" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="173"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="173" t="s">
+      <c r="C63" s="173" t="s">
         <v>125</v>
       </c>
+      <c r="D63" s="173"/>
       <c r="E63" s="173"/>
       <c r="F63" s="173"/>
       <c r="G63" s="173"/>
@@ -7443,21 +8627,20 @@
       <c r="AL63" s="173"/>
       <c r="AM63" s="173"/>
       <c r="AN63" s="173"/>
-      <c r="AO63" s="173"/>
-      <c r="AP63" s="173" t="str">
+      <c r="AO63" s="173" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="64" spans="1:42" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
-      <c r="A64" s="119" t="s">
+    <row r="64" spans="1:41" s="116" customFormat="1" ht="29.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="306" t="s">
         <v>87</v>
       </c>
       <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119" t="s">
+      <c r="C64" s="119" t="s">
         <v>125</v>
       </c>
+      <c r="D64" s="119"/>
       <c r="E64" s="119"/>
       <c r="F64" s="119"/>
       <c r="G64" s="119"/>
@@ -7494,21 +8677,20 @@
       <c r="AL64" s="119"/>
       <c r="AM64" s="119"/>
       <c r="AN64" s="119"/>
-      <c r="AO64" s="119"/>
-      <c r="AP64" s="119" t="str">
+      <c r="AO64" s="119" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="65" spans="1:42" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="139" t="s">
+    <row r="65" spans="1:41" s="129" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A65" s="305" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="139"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="139" t="s">
+      <c r="C65" s="139" t="s">
         <v>125</v>
       </c>
+      <c r="D65" s="139"/>
       <c r="E65" s="139"/>
       <c r="F65" s="139"/>
       <c r="G65" s="139"/>
@@ -7545,21 +8727,20 @@
       <c r="AL65" s="139"/>
       <c r="AM65" s="139"/>
       <c r="AN65" s="139"/>
-      <c r="AO65" s="139"/>
-      <c r="AP65" s="139" t="str">
+      <c r="AO65" s="139" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="66" spans="1:42" s="130" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="141" t="s">
+    <row r="66" spans="1:41" s="130" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A66" s="307" t="s">
         <v>89</v>
       </c>
       <c r="B66" s="141"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141" t="s">
+      <c r="C66" s="310" t="s">
         <v>125</v>
       </c>
+      <c r="D66" s="141"/>
       <c r="E66" s="141"/>
       <c r="F66" s="141"/>
       <c r="G66" s="141"/>
@@ -7596,21 +8777,20 @@
       <c r="AL66" s="141"/>
       <c r="AM66" s="141"/>
       <c r="AN66" s="141"/>
-      <c r="AO66" s="141"/>
-      <c r="AP66" s="141" t="str">
+      <c r="AO66" s="141" t="str">
         <f t="shared" si="0"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="67" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="142" t="s">
+    <row r="67" spans="1:41" s="127" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="303" t="s">
         <v>90</v>
       </c>
       <c r="B67" s="142"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="142" t="s">
+      <c r="C67" s="142" t="s">
         <v>125</v>
       </c>
+      <c r="D67" s="142"/>
       <c r="E67" s="142"/>
       <c r="F67" s="142"/>
       <c r="G67" s="142"/>
@@ -7647,21 +8827,20 @@
       <c r="AL67" s="142"/>
       <c r="AM67" s="142"/>
       <c r="AN67" s="142"/>
-      <c r="AO67" s="142"/>
-      <c r="AP67" s="142" t="str">
-        <f t="shared" ref="AP67:AP101" si="1">DBCS(D67)&amp;"＼"</f>
+      <c r="AO67" s="142" t="str">
+        <f t="shared" ref="AO67:AO101" si="1">DBCS(C67)&amp;"＼"</f>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="68" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="146" t="s">
+    <row r="68" spans="1:41" s="132" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="308" t="s">
         <v>91</v>
       </c>
       <c r="B68" s="146"/>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146" t="s">
+      <c r="C68" s="146" t="s">
         <v>125</v>
       </c>
+      <c r="D68" s="146"/>
       <c r="E68" s="146"/>
       <c r="F68" s="146"/>
       <c r="G68" s="146"/>
@@ -7698,21 +8877,20 @@
       <c r="AL68" s="146"/>
       <c r="AM68" s="146"/>
       <c r="AN68" s="146"/>
-      <c r="AO68" s="146"/>
-      <c r="AP68" s="146" t="str">
+      <c r="AO68" s="146" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A69" s="106" t="s">
+    <row r="69" spans="1:41" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="309" t="s">
         <v>92</v>
       </c>
       <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106" t="s">
+      <c r="C69" s="106" t="s">
         <v>125</v>
       </c>
+      <c r="D69" s="106"/>
       <c r="E69" s="106"/>
       <c r="F69" s="106"/>
       <c r="G69" s="106"/>
@@ -7749,21 +8927,20 @@
       <c r="AL69" s="106"/>
       <c r="AM69" s="106"/>
       <c r="AN69" s="106"/>
-      <c r="AO69" s="106"/>
-      <c r="AP69" s="106" t="str">
+      <c r="AO69" s="106" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="70" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A70" s="218" t="s">
+    <row r="70" spans="1:41" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A70" s="311" t="s">
         <v>93</v>
       </c>
       <c r="B70" s="218"/>
-      <c r="C70" s="218"/>
-      <c r="D70" s="223" t="s">
+      <c r="C70" s="223" t="s">
         <v>125</v>
       </c>
+      <c r="D70" s="165"/>
       <c r="E70" s="165"/>
       <c r="F70" s="165"/>
       <c r="G70" s="165"/>
@@ -7800,21 +8977,20 @@
       <c r="AL70" s="165"/>
       <c r="AM70" s="165"/>
       <c r="AN70" s="165"/>
-      <c r="AO70" s="165"/>
-      <c r="AP70" s="165" t="str">
+      <c r="AO70" s="165" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="71" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="149" t="s">
+    <row r="71" spans="1:41" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="313" t="s">
         <v>94</v>
       </c>
       <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="226" t="s">
+      <c r="C71" s="226" t="s">
         <v>125</v>
       </c>
+      <c r="D71" s="149"/>
       <c r="E71" s="149"/>
       <c r="F71" s="149"/>
       <c r="G71" s="149"/>
@@ -7851,21 +9027,20 @@
       <c r="AL71" s="149"/>
       <c r="AM71" s="149"/>
       <c r="AN71" s="149"/>
-      <c r="AO71" s="149"/>
-      <c r="AP71" s="149" t="str">
+      <c r="AO71" s="149" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="72" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A72" s="153" t="s">
+    <row r="72" spans="1:41" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A72" s="315" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="153"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="230" t="s">
+      <c r="C72" s="230" t="s">
         <v>125</v>
       </c>
+      <c r="D72" s="153"/>
       <c r="E72" s="153"/>
       <c r="F72" s="153"/>
       <c r="G72" s="153"/>
@@ -7902,21 +9077,20 @@
       <c r="AL72" s="153"/>
       <c r="AM72" s="153"/>
       <c r="AN72" s="153"/>
-      <c r="AO72" s="153"/>
-      <c r="AP72" s="153" t="str">
+      <c r="AO72" s="153" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="73" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="124" t="s">
+    <row r="73" spans="1:41" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="316" t="s">
         <v>96</v>
       </c>
       <c r="B73" s="124"/>
-      <c r="C73" s="124"/>
-      <c r="D73" s="234" t="s">
+      <c r="C73" s="234" t="s">
         <v>125</v>
       </c>
+      <c r="D73" s="124"/>
       <c r="E73" s="124"/>
       <c r="F73" s="124"/>
       <c r="G73" s="124"/>
@@ -7953,21 +9127,20 @@
       <c r="AL73" s="124"/>
       <c r="AM73" s="124"/>
       <c r="AN73" s="124"/>
-      <c r="AO73" s="124"/>
-      <c r="AP73" s="124" t="str">
+      <c r="AO73" s="124" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="74" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="157" t="s">
+    <row r="74" spans="1:41" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="312" t="s">
         <v>97</v>
       </c>
       <c r="B74" s="157"/>
-      <c r="C74" s="157"/>
-      <c r="D74" s="239" t="s">
+      <c r="C74" s="239" t="s">
         <v>125</v>
       </c>
+      <c r="D74" s="157"/>
       <c r="E74" s="157"/>
       <c r="F74" s="157"/>
       <c r="G74" s="157"/>
@@ -8004,21 +9177,20 @@
       <c r="AL74" s="157"/>
       <c r="AM74" s="157"/>
       <c r="AN74" s="157"/>
-      <c r="AO74" s="157"/>
-      <c r="AP74" s="157" t="str">
+      <c r="AO74" s="157" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="75" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="161" t="s">
+    <row r="75" spans="1:41" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="317" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="161"/>
-      <c r="C75" s="161"/>
-      <c r="D75" s="243" t="s">
+      <c r="C75" s="243" t="s">
         <v>125</v>
       </c>
+      <c r="D75" s="161"/>
       <c r="E75" s="161"/>
       <c r="F75" s="161"/>
       <c r="G75" s="161"/>
@@ -8055,21 +9227,20 @@
       <c r="AL75" s="161"/>
       <c r="AM75" s="161"/>
       <c r="AN75" s="161"/>
-      <c r="AO75" s="161"/>
-      <c r="AP75" s="161" t="str">
+      <c r="AO75" s="161" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="25" x14ac:dyDescent="0.2">
-      <c r="A76" s="107" t="s">
+    <row r="76" spans="1:41" ht="25" x14ac:dyDescent="0.2">
+      <c r="A76" s="314" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="246" t="s">
+      <c r="C76" s="246" t="s">
         <v>125</v>
       </c>
+      <c r="D76" s="107"/>
       <c r="E76" s="107"/>
       <c r="F76" s="107"/>
       <c r="G76" s="107"/>
@@ -8106,21 +9277,20 @@
       <c r="AL76" s="107"/>
       <c r="AM76" s="107"/>
       <c r="AN76" s="107"/>
-      <c r="AO76" s="107"/>
-      <c r="AP76" s="107" t="str">
+      <c r="AO76" s="107" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="77" spans="1:42" s="213" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A77" s="216" t="s">
+    <row r="77" spans="1:41" s="213" customFormat="1" ht="111.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="335" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="216"/>
-      <c r="C77" s="216"/>
-      <c r="D77" s="216" t="s">
+      <c r="C77" s="274" t="s">
         <v>125</v>
       </c>
+      <c r="D77" s="216"/>
       <c r="E77" s="216"/>
       <c r="F77" s="216"/>
       <c r="G77" s="216"/>
@@ -8157,21 +9327,20 @@
       <c r="AL77" s="216"/>
       <c r="AM77" s="216"/>
       <c r="AN77" s="216"/>
-      <c r="AO77" s="216"/>
-      <c r="AP77" s="216" t="str">
+      <c r="AO77" s="216" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="78" spans="1:42" s="208" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A78" s="211" t="s">
+    <row r="78" spans="1:41" s="208" customFormat="1" ht="74.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="328" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="211"/>
-      <c r="C78" s="211"/>
-      <c r="D78" s="211" t="s">
+      <c r="C78" s="273" t="s">
         <v>125</v>
       </c>
+      <c r="D78" s="211"/>
       <c r="E78" s="211"/>
       <c r="F78" s="211"/>
       <c r="G78" s="211"/>
@@ -8208,21 +9377,20 @@
       <c r="AL78" s="211"/>
       <c r="AM78" s="211"/>
       <c r="AN78" s="211"/>
-      <c r="AO78" s="211"/>
-      <c r="AP78" s="211" t="str">
+      <c r="AO78" s="211" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="79" spans="1:42" s="203" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="206" t="s">
+    <row r="79" spans="1:41" s="203" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A79" s="334" t="s">
         <v>102</v>
       </c>
       <c r="B79" s="206"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="206" t="s">
+      <c r="C79" s="272" t="s">
         <v>125</v>
       </c>
+      <c r="D79" s="206"/>
       <c r="E79" s="206"/>
       <c r="F79" s="206"/>
       <c r="G79" s="206"/>
@@ -8259,21 +9427,20 @@
       <c r="AL79" s="206"/>
       <c r="AM79" s="206"/>
       <c r="AN79" s="206"/>
-      <c r="AO79" s="206"/>
-      <c r="AP79" s="206" t="str">
+      <c r="AO79" s="206" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="80" spans="1:42" s="198" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="201" t="s">
+    <row r="80" spans="1:41" s="198" customFormat="1" ht="44.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="333" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="201"/>
-      <c r="C80" s="201"/>
-      <c r="D80" s="201" t="s">
+      <c r="C80" s="271" t="s">
         <v>125</v>
       </c>
+      <c r="D80" s="201"/>
       <c r="E80" s="201"/>
       <c r="F80" s="201"/>
       <c r="G80" s="201"/>
@@ -8310,21 +9477,20 @@
       <c r="AL80" s="201"/>
       <c r="AM80" s="201"/>
       <c r="AN80" s="201"/>
-      <c r="AO80" s="201"/>
-      <c r="AP80" s="201" t="str">
+      <c r="AO80" s="201" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="81" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="196" t="s">
+    <row r="81" spans="1:41" s="164" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="329" t="s">
         <v>104</v>
       </c>
       <c r="B81" s="196"/>
-      <c r="C81" s="196"/>
-      <c r="D81" s="196" t="s">
+      <c r="C81" s="196" t="s">
         <v>125</v>
       </c>
+      <c r="D81" s="196"/>
       <c r="E81" s="196"/>
       <c r="F81" s="196"/>
       <c r="G81" s="196"/>
@@ -8361,21 +9527,20 @@
       <c r="AL81" s="196"/>
       <c r="AM81" s="196"/>
       <c r="AN81" s="196"/>
-      <c r="AO81" s="196"/>
-      <c r="AP81" s="196" t="str">
+      <c r="AO81" s="196" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="82" spans="1:42" s="189" customFormat="1" ht="26.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="192" t="s">
+    <row r="82" spans="1:41" s="189" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="331" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="192"/>
-      <c r="C82" s="192"/>
-      <c r="D82" s="192" t="s">
+      <c r="C82" s="192" t="s">
         <v>125</v>
       </c>
+      <c r="D82" s="192"/>
       <c r="E82" s="192"/>
       <c r="F82" s="192"/>
       <c r="G82" s="192"/>
@@ -8412,21 +9577,20 @@
       <c r="AL82" s="192"/>
       <c r="AM82" s="192"/>
       <c r="AN82" s="192"/>
-      <c r="AO82" s="192"/>
-      <c r="AP82" s="192" t="str">
+      <c r="AO82" s="192" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="83" spans="1:42" s="184" customFormat="1" ht="23" x14ac:dyDescent="0.2">
-      <c r="A83" s="183" t="s">
+    <row r="83" spans="1:41" s="184" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A83" s="332" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="183"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183" t="s">
+      <c r="C83" s="183" t="s">
         <v>125</v>
       </c>
+      <c r="D83" s="183"/>
       <c r="E83" s="183"/>
       <c r="F83" s="183"/>
       <c r="G83" s="183"/>
@@ -8463,21 +9627,20 @@
       <c r="AL83" s="183"/>
       <c r="AM83" s="183"/>
       <c r="AN83" s="183"/>
-      <c r="AO83" s="183"/>
-      <c r="AP83" s="183" t="str">
+      <c r="AO83" s="183" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="84" spans="1:42" s="179" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A84" s="178" t="s">
+    <row r="84" spans="1:41" s="179" customFormat="1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A84" s="330" t="s">
         <v>107</v>
       </c>
       <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178" t="s">
+      <c r="C84" s="261" t="s">
         <v>125</v>
       </c>
+      <c r="D84" s="178"/>
       <c r="E84" s="178"/>
       <c r="F84" s="178"/>
       <c r="G84" s="178"/>
@@ -8514,21 +9677,20 @@
       <c r="AL84" s="178"/>
       <c r="AM84" s="178"/>
       <c r="AN84" s="178"/>
-      <c r="AO84" s="178"/>
-      <c r="AP84" s="178" t="str">
+      <c r="AO84" s="261" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="85" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="177" t="s">
+    <row r="85" spans="1:41" s="121" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A85" s="327" t="s">
         <v>108</v>
       </c>
       <c r="B85" s="177"/>
-      <c r="C85" s="177"/>
-      <c r="D85" s="177" t="s">
+      <c r="C85" s="177" t="s">
         <v>125</v>
       </c>
+      <c r="D85" s="177"/>
       <c r="E85" s="177"/>
       <c r="F85" s="177"/>
       <c r="G85" s="177"/>
@@ -8565,21 +9727,20 @@
       <c r="AL85" s="177"/>
       <c r="AM85" s="177"/>
       <c r="AN85" s="177"/>
-      <c r="AO85" s="177"/>
-      <c r="AP85" s="177" t="str">
+      <c r="AO85" s="177" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="86" spans="1:42" s="134" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A86" s="137" t="s">
+    <row r="86" spans="1:41" s="134" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A86" s="355" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137" t="s">
+      <c r="C86" s="137" t="s">
         <v>125</v>
       </c>
+      <c r="D86" s="137"/>
       <c r="E86" s="137"/>
       <c r="F86" s="137"/>
       <c r="G86" s="137"/>
@@ -8616,21 +9777,20 @@
       <c r="AL86" s="137"/>
       <c r="AM86" s="137"/>
       <c r="AN86" s="137"/>
-      <c r="AO86" s="137"/>
-      <c r="AP86" s="137" t="str">
+      <c r="AO86" s="137" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="87" spans="1:42" s="111" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A87" s="112" t="s">
+    <row r="87" spans="1:41" s="111" customFormat="1" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="356" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="112"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112" t="s">
+      <c r="C87" s="112" t="s">
         <v>125</v>
       </c>
+      <c r="D87" s="112"/>
       <c r="E87" s="112"/>
       <c r="F87" s="112"/>
       <c r="G87" s="112"/>
@@ -8667,21 +9827,20 @@
       <c r="AL87" s="112"/>
       <c r="AM87" s="112"/>
       <c r="AN87" s="112"/>
-      <c r="AO87" s="112"/>
-      <c r="AP87" s="112" t="str">
+      <c r="AO87" s="112" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="88" spans="1:42" s="164" customFormat="1" ht="30.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+    <row r="88" spans="1:41" s="164" customFormat="1" ht="41" x14ac:dyDescent="0.2">
+      <c r="A88" s="354" t="s">
         <v>111</v>
       </c>
       <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172" t="s">
+      <c r="C88" s="172" t="s">
         <v>125</v>
       </c>
+      <c r="D88" s="172"/>
       <c r="E88" s="172"/>
       <c r="F88" s="172"/>
       <c r="G88" s="172"/>
@@ -8718,21 +9877,20 @@
       <c r="AL88" s="172"/>
       <c r="AM88" s="172"/>
       <c r="AN88" s="172"/>
-      <c r="AO88" s="172"/>
-      <c r="AP88" s="172" t="str">
+      <c r="AO88" s="172" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="89" spans="1:42" s="116" customFormat="1" ht="25" x14ac:dyDescent="0.2">
-      <c r="A89" s="120" t="s">
+    <row r="89" spans="1:41" s="116" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A89" s="357" t="s">
         <v>112</v>
       </c>
       <c r="B89" s="120"/>
-      <c r="C89" s="120"/>
-      <c r="D89" s="120" t="s">
+      <c r="C89" s="120" t="s">
         <v>125</v>
       </c>
+      <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
       <c r="G89" s="120"/>
@@ -8769,21 +9927,20 @@
       <c r="AL89" s="120"/>
       <c r="AM89" s="120"/>
       <c r="AN89" s="120"/>
-      <c r="AO89" s="120"/>
-      <c r="AP89" s="120" t="str">
+      <c r="AO89" s="120" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="90" spans="1:42" s="129" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="140" t="s">
+    <row r="90" spans="1:41" s="129" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="358" t="s">
         <v>113</v>
       </c>
       <c r="B90" s="140"/>
-      <c r="C90" s="140"/>
-      <c r="D90" s="140" t="s">
+      <c r="C90" s="140" t="s">
         <v>125</v>
       </c>
+      <c r="D90" s="140"/>
       <c r="E90" s="140"/>
       <c r="F90" s="140"/>
       <c r="G90" s="140"/>
@@ -8820,21 +9977,20 @@
       <c r="AL90" s="140"/>
       <c r="AM90" s="140"/>
       <c r="AN90" s="140"/>
-      <c r="AO90" s="140"/>
-      <c r="AP90" s="140" t="str">
+      <c r="AO90" s="140" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="91" spans="1:42" s="121" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="125" t="s">
+    <row r="91" spans="1:41" s="121" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A91" s="360" t="s">
         <v>114</v>
       </c>
       <c r="B91" s="125"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="125" t="s">
+      <c r="C91" s="125" t="s">
         <v>125</v>
       </c>
+      <c r="D91" s="125"/>
       <c r="E91" s="125"/>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
@@ -8871,21 +10027,20 @@
       <c r="AL91" s="125"/>
       <c r="AM91" s="125"/>
       <c r="AN91" s="125"/>
-      <c r="AO91" s="125"/>
-      <c r="AP91" s="125" t="str">
+      <c r="AO91" s="125" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="92" spans="1:42" s="127" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="143" t="s">
+    <row r="92" spans="1:41" s="127" customFormat="1" ht="20.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="359" t="s">
         <v>115</v>
       </c>
       <c r="B92" s="143"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="143" t="s">
+      <c r="C92" s="143" t="s">
         <v>125</v>
       </c>
+      <c r="D92" s="143"/>
       <c r="E92" s="143"/>
       <c r="F92" s="143"/>
       <c r="G92" s="143"/>
@@ -8922,21 +10077,20 @@
       <c r="AL92" s="143"/>
       <c r="AM92" s="143"/>
       <c r="AN92" s="143"/>
-      <c r="AO92" s="143"/>
-      <c r="AP92" s="143" t="str">
+      <c r="AO92" s="143" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="93" spans="1:42" s="132" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="145" t="s">
+    <row r="93" spans="1:41" s="132" customFormat="1" ht="18.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="362" t="s">
         <v>116</v>
       </c>
       <c r="B93" s="145"/>
-      <c r="C93" s="145"/>
-      <c r="D93" s="145" t="s">
+      <c r="C93" s="145" t="s">
         <v>125</v>
       </c>
+      <c r="D93" s="145"/>
       <c r="E93" s="145"/>
       <c r="F93" s="145"/>
       <c r="G93" s="145"/>
@@ -8973,21 +10127,20 @@
       <c r="AL93" s="145"/>
       <c r="AM93" s="145"/>
       <c r="AN93" s="145"/>
-      <c r="AO93" s="145"/>
-      <c r="AP93" s="145" t="str">
+      <c r="AO93" s="145" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A94" s="108" t="s">
+    <row r="94" spans="1:41" ht="15.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="361" t="s">
         <v>117</v>
       </c>
       <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108" t="s">
+      <c r="C94" s="108" t="s">
         <v>125</v>
       </c>
+      <c r="D94" s="108"/>
       <c r="E94" s="108"/>
       <c r="F94" s="108"/>
       <c r="G94" s="108"/>
@@ -9024,21 +10177,20 @@
       <c r="AL94" s="108"/>
       <c r="AM94" s="108"/>
       <c r="AN94" s="108"/>
-      <c r="AO94" s="108"/>
-      <c r="AP94" s="108" t="str">
+      <c r="AO94" s="108" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="95" spans="1:42" s="164" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A95" s="217" t="s">
+    <row r="95" spans="1:41" s="164" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="352" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="217"/>
-      <c r="C95" s="217"/>
-      <c r="D95" s="224" t="s">
+      <c r="C95" s="224" t="s">
         <v>125</v>
       </c>
+      <c r="D95" s="163"/>
       <c r="E95" s="163"/>
       <c r="F95" s="163"/>
       <c r="G95" s="163"/>
@@ -9075,21 +10227,20 @@
       <c r="AL95" s="163"/>
       <c r="AM95" s="163"/>
       <c r="AN95" s="163"/>
-      <c r="AO95" s="163"/>
-      <c r="AP95" s="163" t="str">
+      <c r="AO95" s="163" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="96" spans="1:42" s="116" customFormat="1" ht="48.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="148" t="s">
+    <row r="96" spans="1:41" s="116" customFormat="1" ht="54.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="364" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="148"/>
-      <c r="C96" s="148"/>
-      <c r="D96" s="225" t="s">
+      <c r="C96" s="225" t="s">
         <v>125</v>
       </c>
+      <c r="D96" s="148"/>
       <c r="E96" s="148"/>
       <c r="F96" s="148"/>
       <c r="G96" s="148"/>
@@ -9126,21 +10277,20 @@
       <c r="AL96" s="148"/>
       <c r="AM96" s="148"/>
       <c r="AN96" s="148"/>
-      <c r="AO96" s="148"/>
-      <c r="AP96" s="148" t="str">
+      <c r="AO96" s="148" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="97" spans="1:42" s="129" customFormat="1" ht="41" x14ac:dyDescent="0.2">
-      <c r="A97" s="154" t="s">
+    <row r="97" spans="1:41" s="129" customFormat="1" ht="45.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="363" t="s">
         <v>120</v>
       </c>
       <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="229" t="s">
+      <c r="C97" s="229" t="s">
         <v>125</v>
       </c>
+      <c r="D97" s="154"/>
       <c r="E97" s="154"/>
       <c r="F97" s="154"/>
       <c r="G97" s="154"/>
@@ -9177,21 +10327,20 @@
       <c r="AL97" s="154"/>
       <c r="AM97" s="154"/>
       <c r="AN97" s="154"/>
-      <c r="AO97" s="154"/>
-      <c r="AP97" s="154" t="str">
+      <c r="AO97" s="154" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="98" spans="1:42" s="121" customFormat="1" ht="36.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="168" t="s">
+    <row r="98" spans="1:41" s="121" customFormat="1" ht="38.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="366" t="s">
         <v>121</v>
       </c>
       <c r="B98" s="168"/>
-      <c r="C98" s="168"/>
-      <c r="D98" s="233" t="s">
+      <c r="C98" s="233" t="s">
         <v>125</v>
       </c>
+      <c r="D98" s="168"/>
       <c r="E98" s="168"/>
       <c r="F98" s="168"/>
       <c r="G98" s="168"/>
@@ -9228,21 +10377,20 @@
       <c r="AL98" s="168"/>
       <c r="AM98" s="168"/>
       <c r="AN98" s="168"/>
-      <c r="AO98" s="168"/>
-      <c r="AP98" s="168" t="str">
+      <c r="AO98" s="168" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="99" spans="1:42" s="127" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="158" t="s">
+    <row r="99" spans="1:41" s="127" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="353" t="s">
         <v>122</v>
       </c>
       <c r="B99" s="158"/>
-      <c r="C99" s="158"/>
-      <c r="D99" s="240" t="s">
+      <c r="C99" s="240" t="s">
         <v>125</v>
       </c>
+      <c r="D99" s="158"/>
       <c r="E99" s="158"/>
       <c r="F99" s="158"/>
       <c r="G99" s="158"/>
@@ -9279,21 +10427,20 @@
       <c r="AL99" s="158"/>
       <c r="AM99" s="158"/>
       <c r="AN99" s="158"/>
-      <c r="AO99" s="158"/>
-      <c r="AP99" s="158" t="str">
+      <c r="AO99" s="158" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="100" spans="1:42" s="132" customFormat="1" ht="27.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="162" t="s">
+    <row r="100" spans="1:41" s="132" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A100" s="367" t="s">
         <v>123</v>
       </c>
       <c r="B100" s="162"/>
-      <c r="C100" s="162"/>
-      <c r="D100" s="244" t="s">
+      <c r="C100" s="244" t="s">
         <v>125</v>
       </c>
+      <c r="D100" s="162"/>
       <c r="E100" s="162"/>
       <c r="F100" s="162"/>
       <c r="G100" s="162"/>
@@ -9330,21 +10477,20 @@
       <c r="AL100" s="162"/>
       <c r="AM100" s="162"/>
       <c r="AN100" s="162"/>
-      <c r="AO100" s="162"/>
-      <c r="AP100" s="162" t="str">
+      <c r="AO100" s="162" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="101" spans="1:42" ht="25" x14ac:dyDescent="0.2">
-      <c r="A101" s="109" t="s">
+    <row r="101" spans="1:41" ht="26.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="365" t="s">
         <v>124</v>
       </c>
       <c r="B101" s="109"/>
-      <c r="C101" s="109"/>
-      <c r="D101" s="245" t="s">
+      <c r="C101" s="245" t="s">
         <v>125</v>
       </c>
+      <c r="D101" s="109"/>
       <c r="E101" s="109"/>
       <c r="F101" s="109"/>
       <c r="G101" s="109"/>
@@ -9381,29 +10527,28 @@
       <c r="AL101" s="109"/>
       <c r="AM101" s="109"/>
       <c r="AN101" s="109"/>
-      <c r="AO101" s="109"/>
-      <c r="AP101" s="109" t="str">
+      <c r="AO101" s="109" t="str">
         <f t="shared" si="1"/>
         <v>　！”＃＄％＆’（）＊＋，－．／０１２３４５６７８９：；＜＝＞？＠ＡＢＣＤＥＦＧＨＩＪＫＬＭＮＯＰＱＲＳＴＵＶＷＸＹＺ［￥］＾＿‘ａｂｃｄｅｆｇｈｉｊｋｌｍｎｏｐｑｒｓｔｕｖｗｘｙｚ｛｜｝～＼</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="C112" s="101"/>
       <c r="D112" s="101"/>
       <c r="E112" s="101"/>
       <c r="F112" s="101"/>
       <c r="G112" s="101"/>
-      <c r="H112" s="101"/>
+      <c r="AM112" s="101"/>
       <c r="AN112" s="101"/>
-      <c r="AO112" s="101"/>
-    </row>
-    <row r="113" spans="4:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C113" s="101"/>
       <c r="D113" s="101"/>
       <c r="E113" s="101"/>
       <c r="F113" s="101"/>
       <c r="G113" s="101"/>
-      <c r="H113" s="101"/>
+      <c r="AM113" s="101"/>
       <c r="AN113" s="101"/>
-      <c r="AO113" s="101"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
